--- a/100runs/run023/NotionalETEOutput023.xlsx
+++ b/100runs/run023/NotionalETEOutput023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,22 +49,34 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_SOMERSAULT_State_Update</t>
+  </si>
+  <si>
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER_State_Update</t>
+    <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_351.MISSILE_BRAVER_351</t>
+    <t>MISSILE_SOMERSAULT_306.MISSILE_SOMERSAULT_306</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_283.MISSILE_HELLMASKER_283</t>
+    <t>MISSILE_BRAVER_252.MISSILE_BRAVER_252</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT_197.MISSILE_SOMERSAULT_197</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND_38.MISSILE_HIGHWIND_38</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER</t>
+    <t>MISSILE_HIGHWIND</t>
   </si>
 </sst>
 </file>
@@ -422,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,31 +483,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>235.456675463495</v>
+        <v>1116578.348402521</v>
       </c>
       <c r="G2">
-        <v>-65.68206969585792</v>
+        <v>4841125.035498169</v>
       </c>
       <c r="H2">
-        <v>1396.40532382223</v>
+        <v>3985225.991294181</v>
       </c>
       <c r="I2">
-        <v>-1334.485888866904</v>
+        <v>1114860.636894659</v>
       </c>
       <c r="J2">
-        <v>1184.123319964165</v>
+        <v>4843222.453636112</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984366.013063962</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -506,31 +518,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>235.456675463495</v>
+        <v>1116578.348402521</v>
       </c>
       <c r="G3">
-        <v>-65.68206969585792</v>
+        <v>4841125.035498169</v>
       </c>
       <c r="H3">
-        <v>1396.40532382223</v>
+        <v>3985225.991294181</v>
       </c>
       <c r="I3">
-        <v>-1308.139584035297</v>
+        <v>1114890.250871983</v>
       </c>
       <c r="J3">
-        <v>1155.318579872812</v>
+        <v>4843173.802056124</v>
       </c>
       <c r="K3">
-        <v>331.21039633272</v>
+        <v>3984669.808727458</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,31 +553,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>235.456675463495</v>
+        <v>1116578.348402521</v>
       </c>
       <c r="G4">
-        <v>-65.68206969585792</v>
+        <v>4841125.035498169</v>
       </c>
       <c r="H4">
-        <v>1396.40532382223</v>
+        <v>3985225.991294181</v>
       </c>
       <c r="I4">
-        <v>-1281.144525685367</v>
+        <v>1114920.594066255</v>
       </c>
       <c r="J4">
-        <v>1126.513839781459</v>
+        <v>4843125.150476134</v>
       </c>
       <c r="K4">
-        <v>645.9051240903375</v>
+        <v>3984958.455746623</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,31 +588,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>235.456675463495</v>
+        <v>1116578.348402521</v>
       </c>
       <c r="G5">
-        <v>-65.68206969585792</v>
+        <v>4841125.035498169</v>
       </c>
       <c r="H5">
-        <v>1396.40532382223</v>
+        <v>3985225.991294181</v>
       </c>
       <c r="I5">
-        <v>-1253.484738858569</v>
+        <v>1114951.68443377</v>
       </c>
       <c r="J5">
-        <v>1097.709099690106</v>
+        <v>4843076.498896146</v>
       </c>
       <c r="K5">
-        <v>944.0841832728547</v>
+        <v>3985231.954121456</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,31 +623,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>235.456675463495</v>
+        <v>1116578.348402521</v>
       </c>
       <c r="G6">
-        <v>-65.68206969585792</v>
+        <v>4841125.035498169</v>
       </c>
       <c r="H6">
-        <v>1396.40532382223</v>
+        <v>3985225.991294181</v>
       </c>
       <c r="I6">
-        <v>-1225.143855227698</v>
+        <v>1114983.540372983</v>
       </c>
       <c r="J6">
-        <v>1068.904359598753</v>
+        <v>4843027.847316158</v>
       </c>
       <c r="K6">
-        <v>1225.74757388027</v>
+        <v>3985490.303851959</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,31 +658,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>235.456675463495</v>
+        <v>1116578.348402521</v>
       </c>
       <c r="G7">
-        <v>-65.68206969585792</v>
+        <v>4841125.035498169</v>
       </c>
       <c r="H7">
-        <v>1396.40532382223</v>
+        <v>3985225.991294181</v>
       </c>
       <c r="I7">
-        <v>-1196.105103410551</v>
+        <v>1115016.180735392</v>
       </c>
       <c r="J7">
-        <v>1040.0996195074</v>
+        <v>4842979.195736171</v>
       </c>
       <c r="K7">
-        <v>1490.895295912585</v>
+        <v>3985733.504938131</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,31 +693,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>235.456675463495</v>
+        <v>1116578.348402521</v>
       </c>
       <c r="G8">
-        <v>-65.68206969585792</v>
+        <v>4841125.035498169</v>
       </c>
       <c r="H8">
-        <v>1396.40532382223</v>
+        <v>3985225.991294181</v>
       </c>
       <c r="I8">
-        <v>-1166.351299045069</v>
+        <v>1115049.624836697</v>
       </c>
       <c r="J8">
-        <v>1011.294879416047</v>
+        <v>4842930.544156182</v>
       </c>
       <c r="K8">
-        <v>1739.527349369798</v>
+        <v>3985961.55737997</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,31 +728,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>235.456675463495</v>
+        <v>1116578.348402521</v>
       </c>
       <c r="G9">
-        <v>-65.68206969585792</v>
+        <v>4841125.035498169</v>
       </c>
       <c r="H9">
-        <v>1396.40532382223</v>
+        <v>3985225.991294181</v>
       </c>
       <c r="I9">
-        <v>-1135.864834620086</v>
+        <v>1115083.892468228</v>
       </c>
       <c r="J9">
-        <v>982.490139324694</v>
+        <v>4842881.892576193</v>
       </c>
       <c r="K9">
-        <v>1971.643734251911</v>
+        <v>3986174.461177479</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,31 +763,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>235.456675463495</v>
+        <v>1116578.348402521</v>
       </c>
       <c r="G10">
-        <v>-54.8361111604433</v>
+        <v>4841141.548318991</v>
       </c>
       <c r="H10">
-        <v>1396.40532382223</v>
+        <v>3985225.991294181</v>
       </c>
       <c r="I10">
-        <v>-1104.62766905567</v>
+        <v>1115119.00390866</v>
       </c>
       <c r="J10">
-        <v>953.6853992333412</v>
+        <v>4842833.240996205</v>
       </c>
       <c r="K10">
-        <v>2187.244450558921</v>
+        <v>3986372.216330657</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,31 +798,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>182.7418477015983</v>
+        <v>1116529.667845528</v>
       </c>
       <c r="G11">
-        <v>-43.99015262502869</v>
+        <v>4841158.061139812</v>
       </c>
       <c r="H11">
-        <v>1720.361962459622</v>
+        <v>3985425.245584107</v>
       </c>
       <c r="I11">
-        <v>-1072.621317026895</v>
+        <v>1115154.979936011</v>
       </c>
       <c r="J11">
-        <v>924.8806591419882</v>
+        <v>4842784.589416217</v>
       </c>
       <c r="K11">
-        <v>2386.32949829083</v>
+        <v>3986554.822839503</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,31 +833,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>151.7745308527093</v>
+        <v>1116501.070460375</v>
       </c>
       <c r="G12">
-        <v>-33.1441940896141</v>
+        <v>4841174.573960633</v>
       </c>
       <c r="H12">
-        <v>1913.327104203534</v>
+        <v>3985543.931629438</v>
       </c>
       <c r="I12">
-        <v>-1039.826838024716</v>
+        <v>1115191.841839938</v>
       </c>
       <c r="J12">
-        <v>896.0759190506352</v>
+        <v>4842735.937836228</v>
       </c>
       <c r="K12">
-        <v>2568.898877447638</v>
+        <v>3986722.280704018</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,31 +868,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>132.2256885803803</v>
+        <v>1116483.017692856</v>
       </c>
       <c r="G13">
-        <v>-22.29823555419948</v>
+        <v>4841191.086781454</v>
       </c>
       <c r="H13">
-        <v>2051.226248992563</v>
+        <v>3985628.748524353</v>
       </c>
       <c r="I13">
-        <v>-1006.224825147475</v>
+        <v>1115229.611434337</v>
       </c>
       <c r="J13">
-        <v>867.2711789592822</v>
+        <v>4842687.28625624</v>
       </c>
       <c r="K13">
-        <v>2734.952588029346</v>
+        <v>3986874.589924202</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,31 +903,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>118.5924053330676</v>
+        <v>1116470.427766069</v>
       </c>
       <c r="G14">
-        <v>-11.45227701878487</v>
+        <v>4841207.599602276</v>
       </c>
       <c r="H14">
-        <v>2158.60823916026</v>
+        <v>3985694.795394983</v>
       </c>
       <c r="I14">
-        <v>-971.7953936164182</v>
+        <v>1115268.311070251</v>
       </c>
       <c r="J14">
-        <v>838.4664388679291</v>
+        <v>4842638.634676252</v>
       </c>
       <c r="K14">
-        <v>2884.490630035952</v>
+        <v>3987011.750500055</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>108.4215677603215</v>
+        <v>1116461.035303661</v>
       </c>
       <c r="G15">
-        <v>-0.6063184833702743</v>
+        <v>4841224.112423097</v>
       </c>
       <c r="H15">
-        <v>2246.562418413992</v>
+        <v>3985748.89290509</v>
       </c>
       <c r="I15">
-        <v>-936.5181690084048</v>
+        <v>1115307.963649096</v>
       </c>
       <c r="J15">
-        <v>809.6616987765763</v>
+        <v>4842589.983096263</v>
       </c>
       <c r="K15">
-        <v>3017.513003467456</v>
+        <v>3987133.762431576</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,31 +973,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>100.4693930937932</v>
+        <v>1116453.691709676</v>
       </c>
       <c r="G16">
-        <v>10.23964005204433</v>
+        <v>4841240.625243917</v>
       </c>
       <c r="H16">
-        <v>2321.053187897996</v>
+        <v>3985794.709547225</v>
       </c>
       <c r="I16">
-        <v>-900.3722751988706</v>
+        <v>1115348.592636215</v>
       </c>
       <c r="J16">
-        <v>780.8569586852233</v>
+        <v>4842541.331516274</v>
       </c>
       <c r="K16">
-        <v>3134.01970832386</v>
+        <v>3987240.625718766</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,31 +1008,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>94.03550477174841</v>
+        <v>1116447.750207437</v>
       </c>
       <c r="G17">
-        <v>21.08559858745895</v>
+        <v>4841257.138064738</v>
       </c>
       <c r="H17">
-        <v>2385.660363634395</v>
+        <v>3985834.447139822</v>
       </c>
       <c r="I17">
-        <v>-863.3363220078891</v>
+        <v>1115390.222074765</v>
       </c>
       <c r="J17">
-        <v>752.0522185938703</v>
+        <v>4842492.679936286</v>
       </c>
       <c r="K17">
-        <v>3234.010744605162</v>
+        <v>3987332.340361624</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,31 +1043,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>88.69308494161236</v>
+        <v>1116442.816643503</v>
       </c>
       <c r="G18">
-        <v>31.93155712287355</v>
+        <v>4841273.65088556</v>
       </c>
       <c r="H18">
-        <v>2442.702106690649</v>
+        <v>3985869.531501904</v>
       </c>
       <c r="I18">
-        <v>-825.388392542032</v>
+        <v>1115432.876599939</v>
       </c>
       <c r="J18">
-        <v>723.2474785025173</v>
+        <v>4842444.028356298</v>
       </c>
       <c r="K18">
-        <v>3317.486112311363</v>
+        <v>3987408.906360152</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,31 +1078,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>84.16578610271958</v>
+        <v>1116438.635819274</v>
       </c>
       <c r="G19">
-        <v>42.77751565828817</v>
+        <v>4841290.163706381</v>
       </c>
       <c r="H19">
-        <v>2493.765945171993</v>
+        <v>3985900.939065955</v>
       </c>
       <c r="I19">
-        <v>-786.5060302245328</v>
+        <v>1115476.581453555</v>
       </c>
       <c r="J19">
-        <v>694.4427384111643</v>
+        <v>4842395.37677631</v>
       </c>
       <c r="K19">
-        <v>3384.445811442462</v>
+        <v>3987470.323714348</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,31 +1113,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>80.26595983794651</v>
+        <v>1116435.034447083</v>
       </c>
       <c r="G20">
-        <v>53.62347419370276</v>
+        <v>4841306.676527202</v>
       </c>
       <c r="H20">
-        <v>2539.986829085043</v>
+        <v>3985929.367899648</v>
       </c>
       <c r="I20">
-        <v>-746.6662255060826</v>
+        <v>1115521.362498984</v>
       </c>
       <c r="J20">
-        <v>665.6379983198113</v>
+        <v>4842346.725196321</v>
       </c>
       <c r="K20">
-        <v>3434.889841998461</v>
+        <v>3987516.592424213</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,31 +1148,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>76.8612099980127</v>
+        <v>1116431.890263072</v>
       </c>
       <c r="G21">
-        <v>64.46943272911737</v>
+        <v>4841323.189348023</v>
       </c>
       <c r="H21">
-        <v>2582.204328939755</v>
+        <v>3985955.334393163</v>
       </c>
       <c r="I21">
-        <v>-705.8454022483892</v>
+        <v>1115567.246236459</v>
       </c>
       <c r="J21">
-        <v>636.8332582284584</v>
+        <v>4842298.073616332</v>
       </c>
       <c r="K21">
-        <v>3468.818203979358</v>
+        <v>3987547.712489747</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,31 +1183,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>73.85513768794942</v>
+        <v>1116429.114245761</v>
       </c>
       <c r="G22">
-        <v>75.31539126453198</v>
+        <v>4841339.702168844</v>
       </c>
       <c r="H22">
-        <v>2621.057002830045</v>
+        <v>3985979.231301033</v>
       </c>
       <c r="I22">
-        <v>-664.0194037724434</v>
+        <v>1115614.259818756</v>
       </c>
       <c r="J22">
-        <v>608.0285181371055</v>
+        <v>4842249.422036344</v>
       </c>
       <c r="K22">
-        <v>3486.230897385154</v>
+        <v>3987563.68391095</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,31 +1218,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>71.17568438190416</v>
+        <v>1116426.63985127</v>
       </c>
       <c r="G23">
-        <v>86.16134979994659</v>
+        <v>4841356.214989665</v>
       </c>
       <c r="H23">
-        <v>2657.041849892032</v>
+        <v>3986001.364309881</v>
       </c>
       <c r="I23">
-        <v>-621.1634785632406</v>
+        <v>1115662.431067266</v>
       </c>
       <c r="J23">
-        <v>579.2237780457524</v>
+        <v>4842200.770456356</v>
       </c>
       <c r="K23">
-        <v>3487.127922215849</v>
+        <v>3987564.506687821</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,31 +1253,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>68.76777242304318</v>
+        <v>1116424.416217042</v>
       </c>
       <c r="G24">
-        <v>97.0073083353612</v>
+        <v>4841372.727810487</v>
       </c>
       <c r="H24">
-        <v>2690.553288472785</v>
+        <v>3986021.976012506</v>
       </c>
       <c r="I24">
-        <v>-577.2522656224896</v>
+        <v>1115711.788488454</v>
       </c>
       <c r="J24">
-        <v>550.4190379543994</v>
+        <v>4842152.118876368</v>
       </c>
       <c r="K24">
-        <v>3471.509278471442</v>
+        <v>3987550.18082036</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,31 +1288,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>66.58849065738063</v>
+        <v>1116422.403715917</v>
       </c>
       <c r="G25">
-        <v>107.8532668707758</v>
+        <v>4841389.240631307</v>
       </c>
       <c r="H25">
-        <v>2721.909578260319</v>
+        <v>3986041.262159204</v>
       </c>
       <c r="I25">
-        <v>-532.2597794606473</v>
+        <v>1115762.361290731</v>
       </c>
       <c r="J25">
-        <v>521.6142978630465</v>
+        <v>4842103.46729638</v>
       </c>
       <c r="K25">
-        <v>3439.374966151935</v>
+        <v>3987520.706308569</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,31 +1323,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>64.60384769100115</v>
+        <v>1116420.570957865</v>
       </c>
       <c r="G26">
-        <v>118.6992254061904</v>
+        <v>4841405.753452129</v>
       </c>
       <c r="H26">
-        <v>2751.371247590673</v>
+        <v>3986059.382991754</v>
       </c>
       <c r="I26">
-        <v>-486.1593947193982</v>
+        <v>1115814.179401737</v>
       </c>
       <c r="J26">
-        <v>492.8095577716934</v>
+        <v>4842054.815716391</v>
       </c>
       <c r="K26">
-        <v>3390.724985257325</v>
+        <v>3987476.083152446</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,31 +1358,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>62.78652383295296</v>
+        <v>1116418.892713974</v>
       </c>
       <c r="G27">
-        <v>129.545183941605</v>
+        <v>4841422.266272949</v>
       </c>
       <c r="H27">
-        <v>2779.154263913297</v>
+        <v>3986076.471344111</v>
       </c>
       <c r="I27">
-        <v>-438.9238304154721</v>
+        <v>1115867.273486055</v>
       </c>
       <c r="J27">
-        <v>464.0048176803405</v>
+        <v>4842006.164136402</v>
       </c>
       <c r="K27">
-        <v>3325.559335787615</v>
+        <v>3987416.311351993</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,31 +1393,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>61.1142782214695</v>
+        <v>1116417.348445478</v>
       </c>
       <c r="G28">
-        <v>140.3911424770196</v>
+        <v>4841438.77909377</v>
       </c>
       <c r="H28">
-        <v>2805.439650263642</v>
+        <v>3986092.638557151</v>
       </c>
       <c r="I28">
-        <v>-390.5251337964845</v>
+        <v>1115921.674963354</v>
       </c>
       <c r="J28">
-        <v>435.2000775889875</v>
+        <v>4841957.512556414</v>
       </c>
       <c r="K28">
-        <v>3243.878017742804</v>
+        <v>3987341.390907208</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,31 +1428,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>59.56879699620149</v>
+        <v>1116415.921240077</v>
       </c>
       <c r="G29">
-        <v>151.2371010124342</v>
+        <v>4841455.291914592</v>
       </c>
       <c r="H29">
-        <v>2830.380639885829</v>
+        <v>3986107.978879233</v>
       </c>
       <c r="I29">
-        <v>-340.9346637992381</v>
+        <v>1115977.416026983</v>
       </c>
       <c r="J29">
-        <v>406.3953374976345</v>
+        <v>4841908.860976426</v>
       </c>
       <c r="K29">
-        <v>3145.681031122891</v>
+        <v>3987251.321818092</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,31 +1463,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>58.1348452101255</v>
+        <v>1116414.597028758</v>
       </c>
       <c r="G30">
-        <v>162.0830595478488</v>
+        <v>4841471.804735413</v>
       </c>
       <c r="H30">
-        <v>2854.108088600518</v>
+        <v>3986122.572795151</v>
       </c>
       <c r="I30">
-        <v>-290.1230741007056</v>
+        <v>1116034.529663023</v>
       </c>
       <c r="J30">
-        <v>377.5905974062815</v>
+        <v>4841860.209396438</v>
       </c>
       <c r="K30">
-        <v>3030.968375927877</v>
+        <v>3987146.104084644</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,31 +1498,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>56.79963221116677</v>
+        <v>1116413.363999736</v>
       </c>
       <c r="G31">
-        <v>172.9290180832635</v>
+        <v>4841488.317556234</v>
       </c>
       <c r="H31">
-        <v>2876.734630478032</v>
+        <v>3986136.489582145</v>
       </c>
       <c r="I31">
-        <v>-238.0602957516522</v>
+        <v>1116093.049669807</v>
       </c>
       <c r="J31">
-        <v>348.7858573149286</v>
+        <v>4841811.557816449</v>
       </c>
       <c r="K31">
-        <v>2899.740052157762</v>
+        <v>3987025.737706866</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,31 +1533,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>55.55232980721563</v>
+        <v>1116412.212153503</v>
       </c>
       <c r="G32">
-        <v>183.7749766186781</v>
+        <v>4841504.830377055</v>
       </c>
       <c r="H32">
-        <v>2898.357911482236</v>
+        <v>3986149.7892988</v>
       </c>
       <c r="I32">
-        <v>-184.7155193826312</v>
+        <v>1116153.01067792</v>
       </c>
       <c r="J32">
-        <v>319.9811172235756</v>
+        <v>4841762.90623646</v>
       </c>
       <c r="K32">
-        <v>2751.996059812545</v>
+        <v>3986890.222684755</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,31 +1568,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>54.38370158993671</v>
+        <v>1116411.132960514</v>
       </c>
       <c r="G33">
-        <v>194.6209351540926</v>
+        <v>4841521.343197877</v>
       </c>
       <c r="H33">
-        <v>2919.063136177256</v>
+        <v>3986162.524351435</v>
       </c>
       <c r="I33">
-        <v>-130.0571769718172</v>
+        <v>1116214.448170695</v>
       </c>
       <c r="J33">
-        <v>291.1763771322227</v>
+        <v>4841714.254656472</v>
       </c>
       <c r="K33">
-        <v>2587.736398892228</v>
+        <v>3986739.559018314</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,31 +1603,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>53.28581434498503</v>
+        <v>1116410.119094685</v>
       </c>
       <c r="G34">
-        <v>205.4668936895073</v>
+        <v>4841537.856018698</v>
       </c>
       <c r="H34">
-        <v>2938.925095498215</v>
+        <v>3986174.740741312</v>
       </c>
       <c r="I34">
-        <v>-74.05292316388973</v>
+        <v>1116277.398505209</v>
       </c>
       <c r="J34">
-        <v>262.3716370408696</v>
+        <v>4841665.603076484</v>
       </c>
       <c r="K34">
-        <v>2406.961069396809</v>
+        <v>3986573.746707541</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,31 +1638,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>52.25181090633897</v>
+        <v>1116409.164223627</v>
       </c>
       <c r="G35">
-        <v>216.3128522249219</v>
+        <v>4841554.368839518</v>
       </c>
       <c r="H35">
-        <v>2958.009797523476</v>
+        <v>3986186.479067671</v>
       </c>
       <c r="I35">
-        <v>-16.66961612891108</v>
+        <v>1116341.898933796</v>
       </c>
       <c r="J35">
-        <v>233.5668969495166</v>
+        <v>4841616.951496495</v>
       </c>
       <c r="K35">
-        <v>2209.670071326289</v>
+        <v>3986392.785752438</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,31 +1673,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>51.27572957642823</v>
+        <v>1116408.262841894</v>
       </c>
       <c r="G36">
-        <v>227.1588107603365</v>
+        <v>4841570.881660339</v>
       </c>
       <c r="H36">
-        <v>2976.375791014109</v>
+        <v>3986197.775341787</v>
       </c>
       <c r="I36">
-        <v>42.12670205012963</v>
+        <v>1116407.987626098</v>
       </c>
       <c r="J36">
-        <v>204.7621568581637</v>
+        <v>4841568.299916507</v>
       </c>
       <c r="K36">
-        <v>1995.863404680668</v>
+        <v>3986196.676153003</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,31 +1708,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>50.35235923982532</v>
+        <v>1116407.410137177</v>
       </c>
       <c r="G37">
-        <v>238.0047692957511</v>
+        <v>4841587.394481161</v>
       </c>
       <c r="H37">
-        <v>2994.075248663915</v>
+        <v>3986208.661653242</v>
       </c>
       <c r="I37">
-        <v>102.3708254727083</v>
+        <v>1116475.703691647</v>
       </c>
       <c r="J37">
-        <v>175.9574167668107</v>
+        <v>4841519.648336519</v>
       </c>
       <c r="K37">
-        <v>1765.541069459945</v>
+        <v>3985985.417909236</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,31 +1743,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>49.47712212466151</v>
+        <v>1116406.601882041</v>
       </c>
       <c r="G38">
-        <v>248.8507278311657</v>
+        <v>4841603.907301982</v>
       </c>
       <c r="H38">
-        <v>3011.154860580592</v>
+        <v>3986219.166719473</v>
       </c>
       <c r="I38">
-        <v>164.0984050109911</v>
+        <v>1116545.087203013</v>
       </c>
       <c r="J38">
-        <v>147.1526766754578</v>
+        <v>4841470.99675653</v>
       </c>
       <c r="K38">
-        <v>1518.703065664123</v>
+        <v>3985759.011021139</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,31 +1778,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>48.64597818777622</v>
+        <v>1116405.834345629</v>
       </c>
       <c r="G39">
-        <v>259.6966863665803</v>
+        <v>4841620.420122803</v>
       </c>
       <c r="H39">
-        <v>3027.65657654479</v>
+        <v>3986229.316342307</v>
       </c>
       <c r="I39">
-        <v>227.3459694070717</v>
+        <v>1116616.179219515</v>
       </c>
       <c r="J39">
-        <v>118.3479365841047</v>
+        <v>4841422.345176541</v>
       </c>
       <c r="K39">
-        <v>1255.349393293196</v>
+        <v>3985517.45548871</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,31 +1813,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>47.85534656448323</v>
+        <v>1116405.104221118</v>
       </c>
       <c r="G40">
-        <v>270.5426449019949</v>
+        <v>4841636.932943624</v>
       </c>
       <c r="H40">
-        <v>3043.618226757406</v>
+        <v>3986239.133789768</v>
       </c>
       <c r="I40">
-        <v>292.1509468897141</v>
+        <v>1116689.02181152</v>
       </c>
       <c r="J40">
-        <v>89.54319649275172</v>
+        <v>4841373.693596553</v>
       </c>
       <c r="K40">
-        <v>975.4800523471703</v>
+        <v>3985260.75131195</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,31 +1848,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>47.1020405977919</v>
+        <v>1116404.408565729</v>
       </c>
       <c r="G41">
-        <v>281.3886034374095</v>
+        <v>4841653.445764445</v>
       </c>
       <c r="H41">
-        <v>3059.07404419082</v>
+        <v>3986248.640117345</v>
       </c>
       <c r="I41">
-        <v>358.5516873233794</v>
+        <v>1116763.658085339</v>
       </c>
       <c r="J41">
-        <v>60.73845640139883</v>
+        <v>4841325.042016566</v>
       </c>
       <c r="K41">
-        <v>679.0950428260434</v>
+        <v>3984988.898490858</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,31 +1883,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>46.38321375797717</v>
+        <v>1116403.744750775</v>
       </c>
       <c r="G42">
-        <v>292.2345619728241</v>
+        <v>4841669.958585266</v>
       </c>
       <c r="H42">
-        <v>3074.055106686747</v>
+        <v>3986257.854439924</v>
       </c>
       <c r="I42">
-        <v>426.5874849026641</v>
+        <v>1116840.132208736</v>
       </c>
       <c r="J42">
-        <v>31.9337163100458</v>
+        <v>4841276.390436578</v>
       </c>
       <c r="K42">
-        <v>366.1943647298141</v>
+        <v>3984701.897025436</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,31 +1918,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>45.69631435950954</v>
+        <v>1116403.110419853</v>
       </c>
       <c r="G43">
-        <v>303.0805205082387</v>
+        <v>4841686.471406088</v>
       </c>
       <c r="H43">
-        <v>3088.589713156719</v>
+        <v>3986266.794163165</v>
       </c>
       <c r="I43">
-        <v>496.298601405552</v>
+        <v>1116918.489437068</v>
       </c>
       <c r="J43">
-        <v>3.128976218692765</v>
+        <v>4841227.738856588</v>
       </c>
       <c r="K43">
-        <v>36.77801805848401</v>
+        <v>3984399.746915682</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,31 +1953,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>45.03904743305029</v>
+        <v>1116402.503453627</v>
       </c>
       <c r="G44">
-        <v>313.9264790436533</v>
+        <v>4841702.984226909</v>
       </c>
       <c r="H44">
-        <v>3102.703705331652</v>
+        <v>3986275.475181405</v>
       </c>
       <c r="I44">
-        <v>567.7262900192718</v>
+        <v>1116998.776140059</v>
       </c>
       <c r="J44">
-        <v>-25.67576387266013</v>
+        <v>4841179.0872766</v>
       </c>
       <c r="K44">
-        <v>-309.1539971879464</v>
+        <v>3984082.448161597</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,31 +1988,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>44.40934245401267</v>
+        <v>1116401.921940029</v>
       </c>
       <c r="G45">
-        <v>324.7724375790679</v>
+        <v>4841719.49704773</v>
       </c>
       <c r="H45">
-        <v>3116.420744252461</v>
+        <v>3986283.912047713</v>
       </c>
       <c r="I45">
-        <v>640.9128197528362</v>
+        <v>1117081.039829249</v>
       </c>
       <c r="J45">
-        <v>-54.48050396401316</v>
+        <v>4841130.435696612</v>
       </c>
       <c r="K45">
-        <v>-671.6016810094791</v>
+        <v>3983750.000763181</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,31 +2023,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>43.80532589364963</v>
+        <v>1116401.364148914</v>
       </c>
       <c r="G46">
-        <v>335.6183961144826</v>
+        <v>4841736.00986855</v>
       </c>
       <c r="H46">
-        <v>3129.762548932758</v>
+        <v>3986292.11812069</v>
       </c>
       <c r="I46">
-        <v>715.9015004507173</v>
+        <v>1117165.329186105</v>
       </c>
       <c r="J46">
-        <v>-83.28524405536619</v>
+        <v>4841081.784116623</v>
       </c>
       <c r="K46">
-        <v>-1050.565033406114</v>
+        <v>3983402.404720433</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,31 +2058,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>43.22529776367769</v>
+        <v>1116400.828510392</v>
       </c>
       <c r="G47">
-        <v>346.4643546498972</v>
+        <v>4841752.522689372</v>
       </c>
       <c r="H47">
-        <v>3142.749103239071</v>
+        <v>3986300.105691705</v>
       </c>
       <c r="I47">
-        <v>792.7367084224624</v>
+        <v>1117251.694090828</v>
       </c>
       <c r="J47">
-        <v>-112.0899841467192</v>
+        <v>4841033.132536635</v>
       </c>
       <c r="K47">
-        <v>-1446.044054377849</v>
+        <v>3983039.660033355</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,31 +2093,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>42.66771148560274</v>
+        <v>1116400.313596244</v>
       </c>
       <c r="G48">
-        <v>357.3103131853118</v>
+        <v>4841769.035510194</v>
       </c>
       <c r="H48">
-        <v>3155.39883593603</v>
+        <v>3986307.886095641</v>
       </c>
       <c r="I48">
-        <v>871.4639127034161</v>
+        <v>1117340.185651876</v>
       </c>
       <c r="J48">
-        <v>-140.894724238072</v>
+        <v>4840984.480956647</v>
       </c>
       <c r="K48">
-        <v>-1858.038743924683</v>
+        <v>3982661.766701944</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,31 +2128,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>42.13115654189446</v>
+        <v>1116399.818103901</v>
       </c>
       <c r="G49">
-        <v>368.1562717207264</v>
+        <v>4841785.548331014</v>
       </c>
       <c r="H49">
-        <v>3167.728777968134</v>
+        <v>3986315.469807629</v>
       </c>
       <c r="I49">
-        <v>952.1297019620894</v>
+        <v>1117430.856236204</v>
       </c>
       <c r="J49">
-        <v>-169.699464329425</v>
+        <v>4840935.829376658</v>
       </c>
       <c r="K49">
-        <v>-2286.54910204662</v>
+        <v>3982268.724726203</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,31 +2163,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>41.61434346590423</v>
+        <v>1116399.340842579</v>
       </c>
       <c r="G50">
-        <v>379.002230256141</v>
+        <v>4841802.061151835</v>
       </c>
       <c r="H50">
-        <v>3179.754700346712</v>
+        <v>3986322.866527865</v>
       </c>
       <c r="I50">
-        <v>1034.781812070092</v>
+        <v>1117523.759500255</v>
       </c>
       <c r="J50">
-        <v>-198.5042044207781</v>
+        <v>4840887.177796669</v>
       </c>
       <c r="K50">
-        <v>-2731.57512874366</v>
+        <v>3981860.53410613</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,31 +2198,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>41.11609080689787</v>
+        <v>1116398.880721243</v>
       </c>
       <c r="G51">
-        <v>389.8481887915556</v>
+        <v>4841818.573972656</v>
       </c>
       <c r="H51">
-        <v>3191.491235443085</v>
+        <v>3986330.0852562</v>
       </c>
       <c r="I51">
-        <v>1119.469154350956</v>
+        <v>1117618.950421715</v>
       </c>
       <c r="J51">
-        <v>-227.3089445121311</v>
+        <v>4840838.526216681</v>
       </c>
       <c r="K51">
-        <v>-3193.1168240158</v>
+        <v>3981437.194841727</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,31 +2233,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>40.63531377027815</v>
+        <v>1116398.436738119</v>
       </c>
       <c r="G52">
-        <v>400.6941473269702</v>
+        <v>4841835.086793478</v>
       </c>
       <c r="H52">
-        <v>3202.951984028068</v>
+        <v>3986337.13435799</v>
       </c>
       <c r="I52">
-        <v>1206.241844524562</v>
+        <v>1117716.485332041</v>
       </c>
       <c r="J52">
-        <v>-256.1136846034841</v>
+        <v>4840789.874636693</v>
       </c>
       <c r="K52">
-        <v>-3671.174187863041</v>
+        <v>3980998.706932991</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,31 +2268,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>40.17101428441176</v>
+        <v>1116398.007971517</v>
       </c>
       <c r="G53">
-        <v>411.5401058623848</v>
+        <v>4841851.599614299</v>
       </c>
       <c r="H53">
-        <v>3214.149610021731</v>
+        <v>3986344.021622365</v>
       </c>
       <c r="I53">
-        <v>1295.151232364279</v>
+        <v>1117816.421949803</v>
       </c>
       <c r="J53">
-        <v>-284.9184246948369</v>
+        <v>4840741.223056705</v>
       </c>
       <c r="K53">
-        <v>-4165.747220285381</v>
+        <v>3980545.070379925</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,31 +2303,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>39.72227228708548</v>
+        <v>1116397.593571787</v>
       </c>
       <c r="G54">
-        <v>422.3860643977994</v>
+        <v>4841868.11243512</v>
       </c>
       <c r="H54">
-        <v>3225.095924608763</v>
+        <v>3986350.754313967</v>
       </c>
       <c r="I54">
-        <v>1386.249932084414</v>
+        <v>1117918.819414838</v>
       </c>
       <c r="J54">
-        <v>-313.7231647861899</v>
+        <v>4840692.571476716</v>
       </c>
       <c r="K54">
-        <v>-4676.835921282825</v>
+        <v>3980076.285182527</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2326,31 +2338,31 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>269.8979232377998</v>
+        <v>1116579.288487861</v>
       </c>
       <c r="G55">
-        <v>-70.79102274262587</v>
+        <v>4841124.495820139</v>
       </c>
       <c r="H55">
-        <v>1027.389645423594</v>
+        <v>3985229.193743952</v>
       </c>
       <c r="I55">
-        <v>-2025.846142013869</v>
+        <v>1114859.522075114</v>
       </c>
       <c r="J55">
-        <v>2238.701469948523</v>
+        <v>4843231.754571165</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984364.690158381</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2361,31 +2373,31 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>269.8979232377998</v>
+        <v>1116579.288487861</v>
       </c>
       <c r="G56">
-        <v>-70.79102274262587</v>
+        <v>4841124.495820139</v>
       </c>
       <c r="H56">
-        <v>1027.389645423594</v>
+        <v>3985229.193743952</v>
       </c>
       <c r="I56">
-        <v>-1985.850544874396</v>
+        <v>1114889.136022825</v>
       </c>
       <c r="J56">
-        <v>2184.243278899682</v>
+        <v>4843183.102897746</v>
       </c>
       <c r="K56">
-        <v>480.3044772778684</v>
+        <v>3984668.48572101</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2396,31 +2408,31 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>269.8979232377998</v>
+        <v>1116579.288487861</v>
       </c>
       <c r="G57">
-        <v>-70.79102274262587</v>
+        <v>4841124.495820139</v>
       </c>
       <c r="H57">
-        <v>1027.389645423594</v>
+        <v>3985229.193743952</v>
       </c>
       <c r="I57">
-        <v>-1944.870092950637</v>
+        <v>1114919.479186755</v>
       </c>
       <c r="J57">
-        <v>2129.78508785084</v>
+        <v>4843134.451224326</v>
       </c>
       <c r="K57">
-        <v>936.658771681977</v>
+        <v>3984957.132644337</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2431,31 +2443,31 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>269.8979232377998</v>
+        <v>1116579.288487861</v>
       </c>
       <c r="G58">
-        <v>-70.79102274262587</v>
+        <v>4841124.495820139</v>
       </c>
       <c r="H58">
-        <v>1027.389645423594</v>
+        <v>3985229.193743952</v>
       </c>
       <c r="I58">
-        <v>-1902.88053509958</v>
+        <v>1114950.569523181</v>
       </c>
       <c r="J58">
-        <v>2075.326896801999</v>
+        <v>4843085.799550908</v>
       </c>
       <c r="K58">
-        <v>1369.062883212329</v>
+        <v>3985230.630928363</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2466,31 +2478,31 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>269.8979232377998</v>
+        <v>1116579.288487861</v>
       </c>
       <c r="G59">
-        <v>-70.79102274262587</v>
+        <v>4841124.495820139</v>
       </c>
       <c r="H59">
-        <v>1027.389645423594</v>
+        <v>3985229.193743952</v>
       </c>
       <c r="I59">
-        <v>-1859.857023016127</v>
+        <v>1114982.425430539</v>
       </c>
       <c r="J59">
-        <v>2020.868705753157</v>
+        <v>4843037.147877488</v>
       </c>
       <c r="K59">
-        <v>1777.516811868921</v>
+        <v>3985488.980573087</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2501,31 +2513,31 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>269.8979232377998</v>
+        <v>1116579.288487861</v>
       </c>
       <c r="G60">
-        <v>-70.79102274262587</v>
+        <v>4841124.495820139</v>
       </c>
       <c r="H60">
-        <v>1027.389645423594</v>
+        <v>3985229.193743952</v>
       </c>
       <c r="I60">
-        <v>-1815.774096528522</v>
+        <v>1115015.065760309</v>
       </c>
       <c r="J60">
-        <v>1966.410514704316</v>
+        <v>4842988.49620407</v>
       </c>
       <c r="K60">
-        <v>2162.020557651758</v>
+        <v>3985732.18157851</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2536,31 +2548,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>269.8979232377998</v>
+        <v>1116579.288487861</v>
       </c>
       <c r="G61">
-        <v>-70.79102274262587</v>
+        <v>4841124.495820139</v>
       </c>
       <c r="H61">
-        <v>1027.389645423594</v>
+        <v>3985229.193743952</v>
       </c>
       <c r="I61">
-        <v>-1770.60566853171</v>
+        <v>1115048.509828171</v>
       </c>
       <c r="J61">
-        <v>1911.952323655474</v>
+        <v>4842939.84453065</v>
       </c>
       <c r="K61">
-        <v>2522.574120560836</v>
+        <v>3985960.233944631</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2571,31 +2583,31 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>269.8979232377998</v>
+        <v>1116579.288487861</v>
       </c>
       <c r="G62">
-        <v>-70.79102274262587</v>
+        <v>4841124.495820139</v>
       </c>
       <c r="H62">
-        <v>1027.389645423594</v>
+        <v>3985229.193743952</v>
       </c>
       <c r="I62">
-        <v>-1724.325009549668</v>
+        <v>1115082.777425436</v>
       </c>
       <c r="J62">
-        <v>1857.494132606632</v>
+        <v>4842891.192857232</v>
       </c>
       <c r="K62">
-        <v>2859.177500596156</v>
+        <v>3986173.137671451</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2606,31 +2618,31 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>269.8979232377998</v>
+        <v>1116579.288487861</v>
       </c>
       <c r="G63">
-        <v>-59.10143225162263</v>
+        <v>4841141.00863912</v>
       </c>
       <c r="H63">
-        <v>1027.389645423594</v>
+        <v>3985229.193743952</v>
       </c>
       <c r="I63">
-        <v>-1676.904731917619</v>
+        <v>1115117.888830758</v>
       </c>
       <c r="J63">
-        <v>1803.035941557791</v>
+        <v>4842842.541183813</v>
       </c>
       <c r="K63">
-        <v>3171.830697757716</v>
+        <v>3986370.892758968</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2641,31 +2653,31 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>209.4722737684558</v>
+        <v>1116530.607889883</v>
       </c>
       <c r="G64">
-        <v>-47.41184176061939</v>
+        <v>4841157.5214581</v>
       </c>
       <c r="H64">
-        <v>1265.737129799599</v>
+        <v>3985428.448193994</v>
       </c>
       <c r="I64">
-        <v>-1628.316773574736</v>
+        <v>1115153.864822134</v>
       </c>
       <c r="J64">
-        <v>1748.577750508949</v>
+        <v>4842793.889510394</v>
       </c>
       <c r="K64">
-        <v>3460.533712045519</v>
+        <v>3986553.499207185</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2676,31 +2688,31 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>173.9752359830145</v>
+        <v>1116502.010480653</v>
       </c>
       <c r="G65">
-        <v>-35.72225126961616</v>
+        <v>4841174.03427708</v>
       </c>
       <c r="H65">
-        <v>1407.709081047065</v>
+        <v>3985547.134334699</v>
       </c>
       <c r="I65">
-        <v>-1578.532381457761</v>
+        <v>1115190.726689201</v>
       </c>
       <c r="J65">
-        <v>1694.119559460108</v>
+        <v>4842745.237836975</v>
       </c>
       <c r="K65">
-        <v>3725.286543459565</v>
+        <v>3986720.9570161</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2711,31 +2723,31 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>151.5669015383922</v>
+        <v>1116483.957697935</v>
       </c>
       <c r="G66">
-        <v>-24.03266077861292</v>
+        <v>4841190.547096061</v>
       </c>
       <c r="H66">
-        <v>1509.166839086273</v>
+        <v>3985631.951297771</v>
       </c>
       <c r="I66">
-        <v>-1527.522094485706</v>
+        <v>1115228.496245831</v>
       </c>
       <c r="J66">
-        <v>1639.661368411266</v>
+        <v>4842696.586163555</v>
       </c>
       <c r="K66">
-        <v>3966.089191999853</v>
+        <v>3986873.266185713</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2746,31 +2758,31 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>135.9394200574822</v>
+        <v>1116471.367760548</v>
       </c>
       <c r="G67">
-        <v>-12.34307028760968</v>
+        <v>4841207.059915041</v>
       </c>
       <c r="H67">
-        <v>1588.171940915371</v>
+        <v>3985697.998221474</v>
       </c>
       <c r="I67">
-        <v>-1475.255726125569</v>
+        <v>1115267.195843047</v>
       </c>
       <c r="J67">
-        <v>1585.203177362424</v>
+        <v>4842647.934490137</v>
       </c>
       <c r="K67">
-        <v>4182.941657666383</v>
+        <v>3987010.426716025</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2781,31 +2793,31 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>124.2808508830493</v>
+        <v>1116461.975290232</v>
       </c>
       <c r="G68">
-        <v>-0.6534797966064441</v>
+        <v>4841223.572734021</v>
       </c>
       <c r="H68">
-        <v>1652.883247507695</v>
+        <v>3985752.095775054</v>
       </c>
       <c r="I68">
-        <v>-1421.70234652874</v>
+        <v>1115306.848382241</v>
       </c>
       <c r="J68">
-        <v>1530.744986313583</v>
+        <v>4842599.282816718</v>
       </c>
       <c r="K68">
-        <v>4375.843940459153</v>
+        <v>3987132.438607036</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2816,31 +2828,31 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>115.1654778595608</v>
+        <v>1116454.631690064</v>
       </c>
       <c r="G69">
-        <v>11.0361106943968</v>
+        <v>4841240.085553001</v>
       </c>
       <c r="H69">
-        <v>1707.68900049496</v>
+        <v>3985797.912454006</v>
       </c>
       <c r="I69">
-        <v>-1366.830264227546</v>
+        <v>1115347.477328733</v>
       </c>
       <c r="J69">
-        <v>1476.286795264741</v>
+        <v>4842550.631143299</v>
       </c>
       <c r="K69">
-        <v>4544.796040378166</v>
+        <v>3987239.301858745</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2851,31 +2863,31 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>107.7904773714857</v>
+        <v>1116448.690182823</v>
       </c>
       <c r="G70">
-        <v>22.72570118540004</v>
+        <v>4841256.598371982</v>
       </c>
       <c r="H70">
-        <v>1755.223009596237</v>
+        <v>3985837.650078536</v>
       </c>
       <c r="I70">
-        <v>-1310.607007381074</v>
+        <v>1115389.106725654</v>
       </c>
       <c r="J70">
-        <v>1421.8286042159</v>
+        <v>4842501.97946988</v>
       </c>
       <c r="K70">
-        <v>4689.797957423421</v>
+        <v>3987331.016471152</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2886,31 +2898,31 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>101.6665991064937</v>
+        <v>1116443.756614736</v>
       </c>
       <c r="G71">
-        <v>34.41529167640327</v>
+        <v>4841273.111190962</v>
       </c>
       <c r="H71">
-        <v>1797.190835966662</v>
+        <v>3985872.734468811</v>
       </c>
       <c r="I71">
-        <v>-1252.999304559206</v>
+        <v>1115431.761208176</v>
       </c>
       <c r="J71">
-        <v>1367.370413167058</v>
+        <v>4842453.327796461</v>
       </c>
       <c r="K71">
-        <v>4810.849691594919</v>
+        <v>3987407.582444258</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2921,31 +2933,31 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>96.47707304150221</v>
+        <v>1116439.575786986</v>
       </c>
       <c r="G72">
-        <v>46.10488216740652</v>
+        <v>4841289.624009942</v>
       </c>
       <c r="H72">
-        <v>1834.760485706837</v>
+        <v>3985904.1420581</v>
       </c>
       <c r="I72">
-        <v>-1193.973065053463</v>
+        <v>1115475.466018089</v>
       </c>
       <c r="J72">
-        <v>1312.912222118216</v>
+        <v>4842404.676123043</v>
       </c>
       <c r="K72">
-        <v>4907.951242892659</v>
+        <v>3987468.999778062</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2956,31 +2968,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>92.0068026285758</v>
+        <v>1116435.974411763</v>
       </c>
       <c r="G73">
-        <v>57.79447265840975</v>
+        <v>4841306.136828923</v>
       </c>
       <c r="H73">
-        <v>1868.766985628087</v>
+        <v>3985932.570914638</v>
       </c>
       <c r="I73">
-        <v>-1133.493358703037</v>
+        <v>1115520.247018738</v>
       </c>
       <c r="J73">
-        <v>1258.454031069375</v>
+        <v>4842356.024449622</v>
       </c>
       <c r="K73">
-        <v>4981.10261131664</v>
+        <v>3987515.268472564</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2991,31 +3003,31 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>88.1040255714656</v>
+        <v>1116432.830225105</v>
       </c>
       <c r="G74">
-        <v>69.48406314941299</v>
+        <v>4841322.649647903</v>
       </c>
       <c r="H74">
-        <v>1899.828040370903</v>
+        <v>3985958.537429018</v>
       </c>
       <c r="I74">
-        <v>-1071.524395224041</v>
+        <v>1115566.130710331</v>
       </c>
       <c r="J74">
-        <v>1203.995840020533</v>
+        <v>4842307.372776204</v>
       </c>
       <c r="K74">
-        <v>5030.303796866863</v>
+        <v>3987546.388527765</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3026,31 +3038,31 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>84.65824229948306</v>
+        <v>1116430.054205457</v>
       </c>
       <c r="G75">
-        <v>81.17365364041623</v>
+        <v>4841339.162466883</v>
       </c>
       <c r="H75">
-        <v>1928.413461932205</v>
+        <v>3985982.434356092</v>
       </c>
       <c r="I75">
-        <v>-1008.029503029776</v>
+        <v>1115613.144245616</v>
       </c>
       <c r="J75">
-        <v>1149.537648971692</v>
+        <v>4842258.721102785</v>
       </c>
       <c r="K75">
-        <v>5055.554799543328</v>
+        <v>3987562.359943665</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3061,31 +3073,31 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>81.5868539802065</v>
+        <v>1116427.579808883</v>
       </c>
       <c r="G76">
-        <v>92.86324413141948</v>
+        <v>4841355.675285864</v>
       </c>
       <c r="H76">
-        <v>1954.888911884259</v>
+        <v>3986004.567382726</v>
       </c>
       <c r="I76">
-        <v>-942.9711075294563</v>
+        <v>1115661.315445957</v>
       </c>
       <c r="J76">
-        <v>1095.07945792285</v>
+        <v>4842210.069429367</v>
       </c>
       <c r="K76">
-        <v>5056.855619346035</v>
+        <v>3987563.182720263</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3096,31 +3108,31 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>78.82672651405274</v>
+        <v>1116425.356172782</v>
       </c>
       <c r="G77">
-        <v>104.5528346224227</v>
+        <v>4841372.188104844</v>
       </c>
       <c r="H77">
-        <v>1979.544579127688</v>
+        <v>3986025.179101914</v>
       </c>
       <c r="I77">
-        <v>-876.3107088925681</v>
+        <v>1115710.672817789</v>
       </c>
       <c r="J77">
-        <v>1040.621266874008</v>
+        <v>4842161.417755947</v>
       </c>
       <c r="K77">
-        <v>5034.206256274984</v>
+        <v>3987548.856857559</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3131,31 +3143,31 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>76.32867195032253</v>
+        <v>1116423.343669963</v>
       </c>
       <c r="G78">
-        <v>116.242425113426</v>
+        <v>4841388.700923824</v>
       </c>
       <c r="H78">
-        <v>2002.614619678977</v>
+        <v>3986044.465264109</v>
       </c>
       <c r="I78">
-        <v>-808.0088592656881</v>
+        <v>1115761.245569494</v>
       </c>
       <c r="J78">
-        <v>986.1630758251669</v>
+        <v>4842112.766082528</v>
       </c>
       <c r="K78">
-        <v>4987.606710330176</v>
+        <v>3987519.382355554</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3166,31 +3178,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>74.05372682956984</v>
+        <v>1116421.510910368</v>
       </c>
       <c r="G79">
-        <v>127.9320156044292</v>
+        <v>4841405.213742805</v>
       </c>
       <c r="H79">
-        <v>2024.290714356164</v>
+        <v>3986062.586111221</v>
       </c>
       <c r="I79">
-        <v>-738.025139428296</v>
+        <v>1115813.063628684</v>
       </c>
       <c r="J79">
-        <v>931.7048847763252</v>
+        <v>4842064.11440911</v>
       </c>
       <c r="K79">
-        <v>4917.056981511609</v>
+        <v>3987474.759214248</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3201,31 +3213,31 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>71.97057529363575</v>
+        <v>1116419.832665064</v>
       </c>
       <c r="G80">
-        <v>139.6216060954324</v>
+        <v>4841421.726561784</v>
       </c>
       <c r="H80">
-        <v>2044.73175880189</v>
+        <v>3986079.67447731</v>
       </c>
       <c r="I80">
-        <v>-666.31813487375</v>
+        <v>1115866.157659911</v>
       </c>
       <c r="J80">
-        <v>877.2466937274835</v>
+        <v>4842015.462735689</v>
       </c>
       <c r="K80">
-        <v>4822.557069819284</v>
+        <v>3987414.98743364</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3236,31 +3248,31 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>70.05372321545849</v>
+        <v>1116418.288395267</v>
       </c>
       <c r="G81">
-        <v>151.3111965864357</v>
+        <v>4841438.239380765</v>
       </c>
       <c r="H81">
-        <v>2064.070938695866</v>
+        <v>3986095.841703342</v>
       </c>
       <c r="I81">
-        <v>-592.8454113012831</v>
+        <v>1115920.55908281</v>
       </c>
       <c r="J81">
-        <v>822.7885026786421</v>
+        <v>4841966.811062271</v>
       </c>
       <c r="K81">
-        <v>4704.106975253201</v>
+        <v>3987340.06701373</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3271,31 +3283,31 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>68.28217788856664</v>
+        <v>1116416.861188665</v>
       </c>
       <c r="G82">
-        <v>163.0007870774389</v>
+        <v>4841454.752199746</v>
       </c>
       <c r="H82">
-        <v>2082.42099368872</v>
+        <v>3986111.182037751</v>
       </c>
       <c r="I82">
-        <v>-517.5634895045096</v>
+        <v>1115976.3000907</v>
       </c>
       <c r="J82">
-        <v>768.3303116298003</v>
+        <v>4841918.159388852</v>
       </c>
       <c r="K82">
-        <v>4561.706697813361</v>
+        <v>3987249.997954519</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3306,31 +3318,31 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>66.63847588554125</v>
+        <v>1116415.536976231</v>
       </c>
       <c r="G83">
-        <v>174.6903775684421</v>
+        <v>4841471.265018725</v>
       </c>
       <c r="H83">
-        <v>2099.878199491305</v>
+        <v>3986125.775965396</v>
       </c>
       <c r="I83">
-        <v>-440.4278196415889</v>
+        <v>1116033.413669628</v>
       </c>
       <c r="J83">
-        <v>713.8721205809587</v>
+        <v>4841869.507715434</v>
       </c>
       <c r="K83">
-        <v>4395.356237499761</v>
+        <v>3987144.780256006</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3341,31 +3353,31 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>65.10795561131378</v>
+        <v>1116414.303946171</v>
       </c>
       <c r="G84">
-        <v>186.3799680594454</v>
+        <v>4841487.777837706</v>
       </c>
       <c r="H84">
-        <v>2116.525425364859</v>
+        <v>3986139.692763573</v>
       </c>
       <c r="I84">
-        <v>-361.392754871809</v>
+        <v>1116091.933617894</v>
       </c>
       <c r="J84">
-        <v>659.4139295321172</v>
+        <v>4841820.856042014</v>
       </c>
       <c r="K84">
-        <v>4205.055594312405</v>
+        <v>3987024.413918192</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3376,31 +3388,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>63.67820498813334</v>
+        <v>1116413.152098969</v>
       </c>
       <c r="G85">
-        <v>198.0695585504486</v>
+        <v>4841504.290656686</v>
       </c>
       <c r="H85">
-        <v>2132.434513238425</v>
+        <v>3986152.992490917</v>
       </c>
       <c r="I85">
-        <v>-280.4115243429998</v>
+        <v>1116151.894566049</v>
       </c>
       <c r="J85">
-        <v>604.9557384832756</v>
+        <v>4841772.204368595</v>
       </c>
       <c r="K85">
-        <v>3990.804768251289</v>
+        <v>3986888.898941076</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3411,31 +3423,31 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>62.33863655899541</v>
+        <v>1116412.072905071</v>
       </c>
       <c r="G86">
-        <v>209.7591490414518</v>
+        <v>4841520.803475666</v>
       </c>
       <c r="H86">
-        <v>2147.668151419929</v>
+        <v>3986165.727553784</v>
       </c>
       <c r="I86">
-        <v>-197.436205513784</v>
+        <v>1116213.331997389</v>
       </c>
       <c r="J86">
-        <v>550.4975474344341</v>
+        <v>4841723.552695177</v>
       </c>
       <c r="K86">
-        <v>3752.603759316417</v>
+        <v>3986738.235324659</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3446,31 +3458,31 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>61.08015668460482</v>
+        <v>1116411.059038387</v>
       </c>
       <c r="G87">
-        <v>221.4487395324551</v>
+        <v>4841537.316294647</v>
       </c>
       <c r="H87">
-        <v>2162.281366505877</v>
+        <v>3986177.943953479</v>
       </c>
       <c r="I87">
-        <v>-112.4176957942924</v>
+        <v>1116276.282268954</v>
       </c>
       <c r="J87">
-        <v>496.0393563855924</v>
+        <v>4841674.901021757</v>
       </c>
       <c r="K87">
-        <v>3490.452567507785</v>
+        <v>3986572.42306894</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3481,31 +3493,31 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>59.89490517214735</v>
+        <v>1116410.104166526</v>
       </c>
       <c r="G88">
-        <v>233.1383300234584</v>
+        <v>4841553.829113626</v>
       </c>
       <c r="H88">
-        <v>2176.322723203858</v>
+        <v>3986189.68228927</v>
       </c>
       <c r="I88">
-        <v>-25.30568348855336</v>
+        <v>1116340.782633044</v>
       </c>
       <c r="J88">
-        <v>441.5811653367508</v>
+        <v>4841626.249348338</v>
       </c>
       <c r="K88">
-        <v>3204.351192825396</v>
+        <v>3986391.46217392</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3516,31 +3528,31 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>58.77604828123307</v>
+        <v>1116409.202784034</v>
       </c>
       <c r="G89">
-        <v>244.8279205144616</v>
+        <v>4841570.341932607</v>
       </c>
       <c r="H89">
-        <v>2189.835298111941</v>
+        <v>3986200.978572464</v>
       </c>
       <c r="I89">
-        <v>63.95138197863292</v>
+        <v>1116406.871259259</v>
       </c>
       <c r="J89">
-        <v>387.1229742879093</v>
+        <v>4841577.597674919</v>
       </c>
       <c r="K89">
-        <v>2894.299635269249</v>
+        <v>3986195.352639598</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3551,31 +3563,31 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>57.71761264445219</v>
+        <v>1116408.350078599</v>
       </c>
       <c r="G90">
-        <v>256.5175110054648</v>
+        <v>4841586.854751588</v>
       </c>
       <c r="H90">
-        <v>2202.857476707802</v>
+        <v>3986211.864892667</v>
       </c>
       <c r="I90">
-        <v>155.406320567954</v>
+        <v>1116474.587257095</v>
       </c>
       <c r="J90">
-        <v>332.6647832390676</v>
+        <v>4841528.946001501</v>
       </c>
       <c r="K90">
-        <v>2560.297894839344</v>
+        <v>3985984.094465974</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3586,31 +3598,31 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>56.71435087980547</v>
+        <v>1116407.541822783</v>
       </c>
       <c r="G91">
-        <v>268.2071014964681</v>
+        <v>4841603.367570567</v>
       </c>
       <c r="H91">
-        <v>2215.423610717529</v>
+        <v>3986222.369967339</v>
       </c>
       <c r="I91">
-        <v>249.1132528830372</v>
+        <v>1116543.97069908</v>
       </c>
       <c r="J91">
-        <v>278.2065921902262</v>
+        <v>4841480.294328081</v>
       </c>
       <c r="K91">
-        <v>2202.345971535683</v>
+        <v>3985757.687653049</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3621,31 +3633,31 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>55.76163198986341</v>
+        <v>1116406.774285724</v>
       </c>
       <c r="G92">
-        <v>279.8966919874713</v>
+        <v>4841619.880389548</v>
       </c>
       <c r="H92">
-        <v>2227.564564224447</v>
+        <v>3986232.519598329</v>
       </c>
       <c r="I92">
-        <v>345.1276321975814</v>
+        <v>1116615.062644493</v>
       </c>
       <c r="J92">
-        <v>223.7484011413845</v>
+        <v>4841431.642654662</v>
       </c>
       <c r="K92">
-        <v>1820.44386535826</v>
+        <v>3985516.132200823</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3656,31 +3668,31 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>54.85535132165617</v>
+        <v>1116406.044160599</v>
       </c>
       <c r="G93">
-        <v>291.5862824784745</v>
+        <v>4841636.393208529</v>
       </c>
       <c r="H93">
-        <v>2239.308170377014</v>
+        <v>3986242.337053679</v>
       </c>
       <c r="I93">
-        <v>443.5062772711378</v>
+        <v>1116687.905163657</v>
       </c>
       <c r="J93">
-        <v>169.2902100925428</v>
+        <v>4841382.990981244</v>
       </c>
       <c r="K93">
-        <v>1414.591576307081</v>
+        <v>3985259.428109295</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3691,31 +3703,31 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>53.99185609234316</v>
+        <v>1116405.348504624</v>
       </c>
       <c r="G94">
-        <v>303.2758729694778</v>
+        <v>4841652.906027508</v>
       </c>
       <c r="H94">
-        <v>2250.679615702918</v>
+        <v>3986251.843388896</v>
       </c>
       <c r="I94">
-        <v>544.307405972935</v>
+        <v>1116762.541362843</v>
       </c>
       <c r="J94">
-        <v>114.8320190437014</v>
+        <v>4841334.339307824</v>
       </c>
       <c r="K94">
-        <v>984.7891043821444</v>
+        <v>3984987.575378465</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3726,31 +3738,31 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>53.16788339820874</v>
+        <v>1116404.684689111</v>
       </c>
       <c r="G95">
-        <v>314.965463460481</v>
+        <v>4841669.418846489</v>
       </c>
       <c r="H95">
-        <v>2261.701765377649</v>
+        <v>3986261.057718879</v>
       </c>
       <c r="I95">
-        <v>647.5906697336784</v>
+        <v>1116839.015409769</v>
       </c>
       <c r="J95">
-        <v>60.37382799485965</v>
+        <v>4841285.687634406</v>
       </c>
       <c r="K95">
-        <v>531.0364495834486</v>
+        <v>3984700.574008333</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3761,31 +3773,31 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>52.38050830784546</v>
+        <v>1116404.050357655</v>
       </c>
       <c r="G96">
-        <v>326.6550539514843</v>
+        <v>4841685.93166547</v>
       </c>
       <c r="H96">
-        <v>2272.395440009798</v>
+        <v>3986269.997449304</v>
       </c>
       <c r="I96">
-        <v>753.4171888456688</v>
+        <v>1116917.372559746</v>
       </c>
       <c r="J96">
-        <v>5.915636946017965</v>
+        <v>4841237.035960986</v>
       </c>
       <c r="K96">
-        <v>53.33361191099512</v>
+        <v>3984398.423998901</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3796,31 +3808,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>51.62710015700395</v>
+        <v>1116403.443390918</v>
       </c>
       <c r="G97">
-        <v>338.3446444424875</v>
+        <v>4841702.444484449</v>
       </c>
       <c r="H97">
-        <v>2282.779652364722</v>
+        <v>3986278.678474519</v>
       </c>
       <c r="I97">
-        <v>861.8495886321787</v>
+        <v>1116997.659182454</v>
       </c>
       <c r="J97">
-        <v>-48.54255410282347</v>
+        <v>4841188.384287568</v>
       </c>
       <c r="K97">
-        <v>-448.319408635215</v>
+        <v>3984081.125350167</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3831,31 +3843,31 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>50.90528555667377</v>
+        <v>1116402.861876831</v>
       </c>
       <c r="G98">
-        <v>350.0342349334907</v>
+        <v>4841718.95730343</v>
       </c>
       <c r="H98">
-        <v>2292.871810789424</v>
+        <v>3986287.115347608</v>
       </c>
       <c r="I98">
-        <v>972.9520365074533</v>
+        <v>1117079.922789383</v>
       </c>
       <c r="J98">
-        <v>-103.0007451516652</v>
+        <v>4841139.732614148</v>
       </c>
       <c r="K98">
-        <v>-973.9226120551846</v>
+        <v>3983748.678062131</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3866,31 +3878,31 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>50.2129169291022</v>
+        <v>1116402.304085245</v>
       </c>
       <c r="G99">
-        <v>361.723825424494</v>
+        <v>4841735.47012241</v>
       </c>
       <c r="H99">
-        <v>2302.687894805978</v>
+        <v>3986295.321427179</v>
       </c>
       <c r="I99">
-        <v>1086.790279949279</v>
+        <v>1117164.212061953</v>
       </c>
       <c r="J99">
-        <v>-157.4589362005069</v>
+        <v>4841091.080940729</v>
       </c>
       <c r="K99">
-        <v>-1523.475998348913</v>
+        <v>3983401.082134794</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3901,31 +3913,31 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>49.54804562150064</v>
+        <v>1116401.768446272</v>
       </c>
       <c r="G100">
-        <v>373.4134159154972</v>
+        <v>4841751.98294139</v>
       </c>
       <c r="H100">
-        <v>2312.242607321336</v>
+        <v>3986303.309004612</v>
       </c>
       <c r="I100">
-        <v>1203.431685406597</v>
+        <v>1117250.576880314</v>
       </c>
       <c r="J100">
-        <v>-211.9171272493485</v>
+        <v>4841042.429267311</v>
       </c>
       <c r="K100">
-        <v>-2096.979567516399</v>
+        <v>3983038.337568155</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3936,31 +3948,31 @@
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>48.90889883077116</v>
+        <v>1116401.253531692</v>
       </c>
       <c r="G101">
-        <v>385.1030064065004</v>
+        <v>4841768.495760371</v>
       </c>
       <c r="H101">
-        <v>2321.549507093573</v>
+        <v>3986311.0894148</v>
       </c>
       <c r="I101">
-        <v>1322.945278165174</v>
+        <v>1117339.068352874</v>
       </c>
       <c r="J101">
-        <v>-266.3753182981897</v>
+        <v>4840993.777593891</v>
       </c>
       <c r="K101">
-        <v>-2694.433319557639</v>
+        <v>3982660.444362214</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3971,31 +3983,31 @@
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>48.29385971699462</v>
+        <v>1116400.758038932</v>
       </c>
       <c r="G102">
-        <v>396.7925968975037</v>
+        <v>4841785.008579351</v>
       </c>
       <c r="H102">
-        <v>2330.621124450189</v>
+        <v>3986318.673132883</v>
       </c>
       <c r="I102">
-        <v>1445.401783194944</v>
+        <v>1117429.738846534</v>
       </c>
       <c r="J102">
-        <v>-320.8335093470314</v>
+        <v>4840945.125920473</v>
       </c>
       <c r="K102">
-        <v>-3315.83725447264</v>
+        <v>3982267.402516973</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4006,31 +4018,31 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>47.70145019776004</v>
+        <v>1116400.280777207</v>
       </c>
       <c r="G103">
-        <v>408.4821873885069</v>
+        <v>4841801.521398331</v>
       </c>
       <c r="H103">
-        <v>2339.469062736903</v>
+        <v>3986326.069859063</v>
       </c>
       <c r="I103">
-        <v>1570.873667003153</v>
+        <v>1117522.642017686</v>
       </c>
       <c r="J103">
-        <v>-375.2917003958731</v>
+        <v>4840896.474247053</v>
       </c>
       <c r="K103">
-        <v>-3961.191372261401</v>
+        <v>3981859.212032429</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4041,31 +4053,31 @@
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>47.13031600651738</v>
+        <v>1116399.820655484</v>
       </c>
       <c r="G104">
-        <v>420.1717778795102</v>
+        <v>4841818.034217312</v>
       </c>
       <c r="H104">
-        <v>2348.104087557748</v>
+        <v>3986333.288593199</v>
       </c>
       <c r="I104">
-        <v>1699.435180518121</v>
+        <v>1117617.832843958</v>
       </c>
       <c r="J104">
-        <v>-429.7498914447148</v>
+        <v>4840847.822573635</v>
       </c>
       <c r="K104">
-        <v>-4630.495672923919</v>
+        <v>3981435.872908584</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4076,31 +4088,31 @@
         <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>46.57921367115717</v>
+        <v>1116399.376671986</v>
       </c>
       <c r="G105">
-        <v>431.8613683705134</v>
+        <v>4841834.547036292</v>
       </c>
       <c r="H105">
-        <v>2356.536205528184</v>
+        <v>3986340.337700653</v>
       </c>
       <c r="I105">
-        <v>1831.162403028974</v>
+        <v>1117715.367656753</v>
       </c>
       <c r="J105">
-        <v>-484.2080824935565</v>
+        <v>4840799.170900215</v>
       </c>
       <c r="K105">
-        <v>-5323.750156460195</v>
+        <v>3980997.385145437</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4111,31 +4123,31 @@
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>46.04699912787</v>
+        <v>1116398.947905023</v>
       </c>
       <c r="G106">
-        <v>443.5509588615166</v>
+        <v>4841851.059855272</v>
       </c>
       <c r="H106">
-        <v>2364.774733986187</v>
+        <v>3986347.224970562</v>
       </c>
       <c r="I106">
-        <v>1966.133287207331</v>
+        <v>1117815.304174582</v>
       </c>
       <c r="J106">
-        <v>-538.6662735423977</v>
+        <v>4840750.519226797</v>
       </c>
       <c r="K106">
-        <v>-6040.954822870224</v>
+        <v>3980543.74874299</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4146,31 +4158,3741 @@
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>45.53261773303576</v>
+        <v>1116398.533504944</v>
       </c>
       <c r="G107">
-        <v>455.2405493525198</v>
+        <v>4841867.572674253</v>
       </c>
       <c r="H107">
-        <v>2372.828362879181</v>
+        <v>3986353.957667575</v>
       </c>
       <c r="I107">
-        <v>2104.427705237645</v>
+        <v>1117917.701537224</v>
       </c>
       <c r="J107">
-        <v>-593.1244645912394</v>
+        <v>4840701.867553378</v>
       </c>
       <c r="K107">
-        <v>-6782.109672154016</v>
+        <v>3980074.96370124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>23</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116578.857201247</v>
+      </c>
+      <c r="G108">
+        <v>4841125.436392574</v>
+      </c>
+      <c r="H108">
+        <v>3985230.219502028</v>
+      </c>
+      <c r="I108">
+        <v>1114863.857879433</v>
+      </c>
+      <c r="J108">
+        <v>4843230.91433592</v>
+      </c>
+      <c r="K108">
+        <v>3984368.594191242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>23</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116578.857201247</v>
+      </c>
+      <c r="G109">
+        <v>4841125.436392574</v>
+      </c>
+      <c r="H109">
+        <v>3985230.219502028</v>
+      </c>
+      <c r="I109">
+        <v>1114893.471942316</v>
+      </c>
+      <c r="J109">
+        <v>4843182.262670941</v>
+      </c>
+      <c r="K109">
+        <v>3984672.390051541</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>23</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116578.857201247</v>
+      </c>
+      <c r="G110">
+        <v>4841125.436392574</v>
+      </c>
+      <c r="H110">
+        <v>3985230.219502028</v>
+      </c>
+      <c r="I110">
+        <v>1114923.815224253</v>
+      </c>
+      <c r="J110">
+        <v>4843133.611005962</v>
+      </c>
+      <c r="K110">
+        <v>3984961.037257696</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>23</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116578.857201247</v>
+      </c>
+      <c r="G111">
+        <v>4841125.436392574</v>
+      </c>
+      <c r="H111">
+        <v>3985230.219502028</v>
+      </c>
+      <c r="I111">
+        <v>1114954.905681593</v>
+      </c>
+      <c r="J111">
+        <v>4843084.959340983</v>
+      </c>
+      <c r="K111">
+        <v>3985234.535809705</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>23</v>
+      </c>
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116578.857201247</v>
+      </c>
+      <c r="G112">
+        <v>4841125.436392574</v>
+      </c>
+      <c r="H112">
+        <v>3985230.219502028</v>
+      </c>
+      <c r="I112">
+        <v>1114986.761712842</v>
+      </c>
+      <c r="J112">
+        <v>4843036.307676005</v>
+      </c>
+      <c r="K112">
+        <v>3985492.885707571</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>23</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116578.857201247</v>
+      </c>
+      <c r="G113">
+        <v>4841125.436392574</v>
+      </c>
+      <c r="H113">
+        <v>3985230.219502028</v>
+      </c>
+      <c r="I113">
+        <v>1115019.402169553</v>
+      </c>
+      <c r="J113">
+        <v>4842987.656011026</v>
+      </c>
+      <c r="K113">
+        <v>3985736.086951291</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>23</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116578.857201247</v>
+      </c>
+      <c r="G114">
+        <v>4841125.436392574</v>
+      </c>
+      <c r="H114">
+        <v>3985230.219502028</v>
+      </c>
+      <c r="I114">
+        <v>1115052.846367483</v>
+      </c>
+      <c r="J114">
+        <v>4842939.004346048</v>
+      </c>
+      <c r="K114">
+        <v>3985964.139540866</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>23</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116578.857201247</v>
+      </c>
+      <c r="G115">
+        <v>4841125.436392574</v>
+      </c>
+      <c r="H115">
+        <v>3985230.219502028</v>
+      </c>
+      <c r="I115">
+        <v>1115087.114098018</v>
+      </c>
+      <c r="J115">
+        <v>4842890.352681069</v>
+      </c>
+      <c r="K115">
+        <v>3986177.043476298</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>23</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116578.857201247</v>
+      </c>
+      <c r="G116">
+        <v>4841141.949214762</v>
+      </c>
+      <c r="H116">
+        <v>3985230.219502028</v>
+      </c>
+      <c r="I116">
+        <v>1115122.225639892</v>
+      </c>
+      <c r="J116">
+        <v>4842841.701016091</v>
+      </c>
+      <c r="K116">
+        <v>3986374.798757583</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>23</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116530.176622072</v>
+      </c>
+      <c r="G117">
+        <v>4841158.462036951</v>
+      </c>
+      <c r="H117">
+        <v>3985429.474003357</v>
+      </c>
+      <c r="I117">
+        <v>1115158.201771182</v>
+      </c>
+      <c r="J117">
+        <v>4842793.049351112</v>
+      </c>
+      <c r="K117">
+        <v>3986557.405384724</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>23</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116501.579223888</v>
+      </c>
+      <c r="G118">
+        <v>4841174.974859139</v>
+      </c>
+      <c r="H118">
+        <v>3985548.16017461</v>
+      </c>
+      <c r="I118">
+        <v>1115195.063781609</v>
+      </c>
+      <c r="J118">
+        <v>4842744.397686133</v>
+      </c>
+      <c r="K118">
+        <v>3986724.863357721</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>23</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116483.526448143</v>
+      </c>
+      <c r="G119">
+        <v>4841191.487681328</v>
+      </c>
+      <c r="H119">
+        <v>3985632.977159513</v>
+      </c>
+      <c r="I119">
+        <v>1115232.833485129</v>
+      </c>
+      <c r="J119">
+        <v>4842695.746021154</v>
+      </c>
+      <c r="K119">
+        <v>3986877.172676573</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>23</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116470.936515619</v>
+      </c>
+      <c r="G120">
+        <v>4841208.000503516</v>
+      </c>
+      <c r="H120">
+        <v>3985699.024100216</v>
+      </c>
+      <c r="I120">
+        <v>1115271.533232851</v>
+      </c>
+      <c r="J120">
+        <v>4842647.094356176</v>
+      </c>
+      <c r="K120">
+        <v>3987014.33334128</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>23</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116461.544048931</v>
+      </c>
+      <c r="G121">
+        <v>4841224.513325705</v>
+      </c>
+      <c r="H121">
+        <v>3985753.12166772</v>
+      </c>
+      <c r="I121">
+        <v>1115311.185926258</v>
+      </c>
+      <c r="J121">
+        <v>4842598.442691198</v>
+      </c>
+      <c r="K121">
+        <v>3987136.345351842</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>23</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116454.2004516</v>
+      </c>
+      <c r="G122">
+        <v>4841241.026147893</v>
+      </c>
+      <c r="H122">
+        <v>3985798.938358465</v>
+      </c>
+      <c r="I122">
+        <v>1115351.81503076</v>
+      </c>
+      <c r="J122">
+        <v>4842549.791026219</v>
+      </c>
+      <c r="K122">
+        <v>3987243.20870826</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>23</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116448.258946654</v>
+      </c>
+      <c r="G123">
+        <v>4841257.538970082</v>
+      </c>
+      <c r="H123">
+        <v>3985838.675993223</v>
+      </c>
+      <c r="I123">
+        <v>1115393.444589582</v>
+      </c>
+      <c r="J123">
+        <v>4842501.139361241</v>
+      </c>
+      <c r="K123">
+        <v>3987334.923410533</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>23</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116443.325380472</v>
+      </c>
+      <c r="G124">
+        <v>4841274.051792271</v>
+      </c>
+      <c r="H124">
+        <v>3985873.760392528</v>
+      </c>
+      <c r="I124">
+        <v>1115436.099237992</v>
+      </c>
+      <c r="J124">
+        <v>4842452.487696262</v>
+      </c>
+      <c r="K124">
+        <v>3987411.489458661</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>23</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116439.144554337</v>
+      </c>
+      <c r="G125">
+        <v>4841290.564614459</v>
+      </c>
+      <c r="H125">
+        <v>3985905.167989901</v>
+      </c>
+      <c r="I125">
+        <v>1115479.804217877</v>
+      </c>
+      <c r="J125">
+        <v>4842403.836031284</v>
+      </c>
+      <c r="K125">
+        <v>3987472.906852644</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>23</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116435.543180506</v>
+      </c>
+      <c r="G126">
+        <v>4841307.077436647</v>
+      </c>
+      <c r="H126">
+        <v>3985933.596853756</v>
+      </c>
+      <c r="I126">
+        <v>1115524.585392685</v>
+      </c>
+      <c r="J126">
+        <v>4842355.184366304</v>
+      </c>
+      <c r="K126">
+        <v>3987519.175592482</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>23</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116432.398995061</v>
+      </c>
+      <c r="G127">
+        <v>4841323.590258837</v>
+      </c>
+      <c r="H127">
+        <v>3985959.563374821</v>
+      </c>
+      <c r="I127">
+        <v>1115570.469262724</v>
+      </c>
+      <c r="J127">
+        <v>4842306.532701327</v>
+      </c>
+      <c r="K127">
+        <v>3987550.295678176</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>23</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116429.622976485</v>
+      </c>
+      <c r="G128">
+        <v>4841340.103081024</v>
+      </c>
+      <c r="H128">
+        <v>3985983.460308045</v>
+      </c>
+      <c r="I128">
+        <v>1115617.48298085</v>
+      </c>
+      <c r="J128">
+        <v>4842257.881036348</v>
+      </c>
+      <c r="K128">
+        <v>3987566.267109725</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>23</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116427.148580868</v>
+      </c>
+      <c r="G129">
+        <v>4841356.615903214</v>
+      </c>
+      <c r="H129">
+        <v>3986005.593340376</v>
+      </c>
+      <c r="I129">
+        <v>1115665.654368533</v>
+      </c>
+      <c r="J129">
+        <v>4842209.22937137</v>
+      </c>
+      <c r="K129">
+        <v>3987567.08988713</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>23</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116424.924945626</v>
+      </c>
+      <c r="G130">
+        <v>4841373.128725402</v>
+      </c>
+      <c r="H130">
+        <v>3986026.205064869</v>
+      </c>
+      <c r="I130">
+        <v>1115715.011932321</v>
+      </c>
+      <c r="J130">
+        <v>4842160.57770639</v>
+      </c>
+      <c r="K130">
+        <v>3987552.764010388</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>23</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116422.912443584</v>
+      </c>
+      <c r="G131">
+        <v>4841389.64154759</v>
+      </c>
+      <c r="H131">
+        <v>3986045.491232028</v>
+      </c>
+      <c r="I131">
+        <v>1115765.584880709</v>
+      </c>
+      <c r="J131">
+        <v>4842111.926041412</v>
+      </c>
+      <c r="K131">
+        <v>3987523.289479503</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>23</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116421.079684696</v>
+      </c>
+      <c r="G132">
+        <v>4841406.154369779</v>
+      </c>
+      <c r="H132">
+        <v>3986063.612083804</v>
+      </c>
+      <c r="I132">
+        <v>1115817.403141425</v>
+      </c>
+      <c r="J132">
+        <v>4842063.274376433</v>
+      </c>
+      <c r="K132">
+        <v>3987478.666294473</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>23</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116419.401440041</v>
+      </c>
+      <c r="G133">
+        <v>4841422.667191967</v>
+      </c>
+      <c r="H133">
+        <v>3986080.700454291</v>
+      </c>
+      <c r="I133">
+        <v>1115870.49737914</v>
+      </c>
+      <c r="J133">
+        <v>4842014.622711455</v>
+      </c>
+      <c r="K133">
+        <v>3987418.894455298</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>23</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116417.857170841</v>
+      </c>
+      <c r="G134">
+        <v>4841439.180014156</v>
+      </c>
+      <c r="H134">
+        <v>3986096.867684484</v>
+      </c>
+      <c r="I134">
+        <v>1115924.899013612</v>
+      </c>
+      <c r="J134">
+        <v>4841965.971046476</v>
+      </c>
+      <c r="K134">
+        <v>3987343.973961979</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>23</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>18</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116416.42996479</v>
+      </c>
+      <c r="G135">
+        <v>4841455.692836345</v>
+      </c>
+      <c r="H135">
+        <v>3986112.208022842</v>
+      </c>
+      <c r="I135">
+        <v>1115980.640238284</v>
+      </c>
+      <c r="J135">
+        <v>4841917.319381498</v>
+      </c>
+      <c r="K135">
+        <v>3987253.904814515</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>23</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116415.105752867</v>
+      </c>
+      <c r="G136">
+        <v>4841472.205658533</v>
+      </c>
+      <c r="H136">
+        <v>3986126.801954244</v>
+      </c>
+      <c r="I136">
+        <v>1116037.754039333</v>
+      </c>
+      <c r="J136">
+        <v>4841868.667716519</v>
+      </c>
+      <c r="K136">
+        <v>3987148.687012906</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>23</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116413.872723284</v>
+      </c>
+      <c r="G137">
+        <v>4841488.718480722</v>
+      </c>
+      <c r="H137">
+        <v>3986140.718756003</v>
+      </c>
+      <c r="I137">
+        <v>1116096.27421519</v>
+      </c>
+      <c r="J137">
+        <v>4841820.01605154</v>
+      </c>
+      <c r="K137">
+        <v>3987028.320557152</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>23</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116412.720876526</v>
+      </c>
+      <c r="G138">
+        <v>4841505.23130291</v>
+      </c>
+      <c r="H138">
+        <v>3986154.018486769</v>
+      </c>
+      <c r="I138">
+        <v>1116156.235396538</v>
+      </c>
+      <c r="J138">
+        <v>4841771.364386562</v>
+      </c>
+      <c r="K138">
+        <v>3986892.805447253</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>23</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116411.641683045</v>
+      </c>
+      <c r="G139">
+        <v>4841521.744125098</v>
+      </c>
+      <c r="H139">
+        <v>3986166.753552915</v>
+      </c>
+      <c r="I139">
+        <v>1116217.673066815</v>
+      </c>
+      <c r="J139">
+        <v>4841722.712721583</v>
+      </c>
+      <c r="K139">
+        <v>3986742.14168321</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>23</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116410.627816753</v>
+      </c>
+      <c r="G140">
+        <v>4841538.256947287</v>
+      </c>
+      <c r="H140">
+        <v>3986178.969955754</v>
+      </c>
+      <c r="I140">
+        <v>1116280.6235832</v>
+      </c>
+      <c r="J140">
+        <v>4841674.061056606</v>
+      </c>
+      <c r="K140">
+        <v>3986576.329265022</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>23</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116409.672945261</v>
+      </c>
+      <c r="G141">
+        <v>4841554.769769475</v>
+      </c>
+      <c r="H141">
+        <v>3986190.708294567</v>
+      </c>
+      <c r="I141">
+        <v>1116345.124198138</v>
+      </c>
+      <c r="J141">
+        <v>4841625.409391626</v>
+      </c>
+      <c r="K141">
+        <v>3986395.368192689</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>23</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116408.771563117</v>
+      </c>
+      <c r="G142">
+        <v>4841571.282591664</v>
+      </c>
+      <c r="H142">
+        <v>3986202.004580668</v>
+      </c>
+      <c r="I142">
+        <v>1116411.213081379</v>
+      </c>
+      <c r="J142">
+        <v>4841576.757726648</v>
+      </c>
+      <c r="K142">
+        <v>3986199.258466212</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>23</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>18</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116407.918858011</v>
+      </c>
+      <c r="G143">
+        <v>4841587.795413853</v>
+      </c>
+      <c r="H143">
+        <v>3986212.890903673</v>
+      </c>
+      <c r="I143">
+        <v>1116478.92934257</v>
+      </c>
+      <c r="J143">
+        <v>4841528.106061669</v>
+      </c>
+      <c r="K143">
+        <v>3985988.000085589</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>23</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116407.110602507</v>
+      </c>
+      <c r="G144">
+        <v>4841604.308236041</v>
+      </c>
+      <c r="H144">
+        <v>3986223.395981049</v>
+      </c>
+      <c r="I144">
+        <v>1116548.313054394</v>
+      </c>
+      <c r="J144">
+        <v>4841479.454396691</v>
+      </c>
+      <c r="K144">
+        <v>3985761.593050822</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>23</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116406.343065745</v>
+      </c>
+      <c r="G145">
+        <v>4841620.82105823</v>
+      </c>
+      <c r="H145">
+        <v>3986233.545614652</v>
+      </c>
+      <c r="I145">
+        <v>1116619.405276291</v>
+      </c>
+      <c r="J145">
+        <v>4841430.802731711</v>
+      </c>
+      <c r="K145">
+        <v>3985520.03736191</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>23</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>18</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116405.612940902</v>
+      </c>
+      <c r="G146">
+        <v>4841637.333880419</v>
+      </c>
+      <c r="H146">
+        <v>3986243.363072528</v>
+      </c>
+      <c r="I146">
+        <v>1116692.248078748</v>
+      </c>
+      <c r="J146">
+        <v>4841382.151066734</v>
+      </c>
+      <c r="K146">
+        <v>3985263.333018854</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>23</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>18</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116404.917285196</v>
+      </c>
+      <c r="G147">
+        <v>4841653.846702606</v>
+      </c>
+      <c r="H147">
+        <v>3986252.869410192</v>
+      </c>
+      <c r="I147">
+        <v>1116766.884568201</v>
+      </c>
+      <c r="J147">
+        <v>4841333.499401755</v>
+      </c>
+      <c r="K147">
+        <v>3984991.480021652</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>23</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116404.25346994</v>
+      </c>
+      <c r="G148">
+        <v>4841670.359524796</v>
+      </c>
+      <c r="H148">
+        <v>3986262.083742547</v>
+      </c>
+      <c r="I148">
+        <v>1116843.358912542</v>
+      </c>
+      <c r="J148">
+        <v>4841284.847736777</v>
+      </c>
+      <c r="K148">
+        <v>3984704.478370306</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>23</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>18</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116403.619138728</v>
+      </c>
+      <c r="G149">
+        <v>4841686.872346984</v>
+      </c>
+      <c r="H149">
+        <v>3986271.023475273</v>
+      </c>
+      <c r="I149">
+        <v>1116921.716367259</v>
+      </c>
+      <c r="J149">
+        <v>4841236.196071797</v>
+      </c>
+      <c r="K149">
+        <v>3984402.328064816</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>23</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" t="s">
+        <v>18</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116403.012172225</v>
+      </c>
+      <c r="G150">
+        <v>4841703.385169173</v>
+      </c>
+      <c r="H150">
+        <v>3986279.704502722</v>
+      </c>
+      <c r="I150">
+        <v>1117002.00330221</v>
+      </c>
+      <c r="J150">
+        <v>4841187.544406819</v>
+      </c>
+      <c r="K150">
+        <v>3984085.02910518</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>23</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>18</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116402.430658363</v>
+      </c>
+      <c r="G151">
+        <v>4841719.897991361</v>
+      </c>
+      <c r="H151">
+        <v>3986288.141377982</v>
+      </c>
+      <c r="I151">
+        <v>1117084.267229071</v>
+      </c>
+      <c r="J151">
+        <v>4841138.89274184</v>
+      </c>
+      <c r="K151">
+        <v>3983752.5814914</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>23</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" t="s">
+        <v>18</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116401.872866993</v>
+      </c>
+      <c r="G152">
+        <v>4841736.41081355</v>
+      </c>
+      <c r="H152">
+        <v>3986296.347459665</v>
+      </c>
+      <c r="I152">
+        <v>1117168.55682945</v>
+      </c>
+      <c r="J152">
+        <v>4841090.241076862</v>
+      </c>
+      <c r="K152">
+        <v>3983404.985223474</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>23</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>18</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116401.337228227</v>
+      </c>
+      <c r="G153">
+        <v>4841752.923635738</v>
+      </c>
+      <c r="H153">
+        <v>3986304.335039155</v>
+      </c>
+      <c r="I153">
+        <v>1117254.921983693</v>
+      </c>
+      <c r="J153">
+        <v>4841041.589411884</v>
+      </c>
+      <c r="K153">
+        <v>3983042.240301405</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>23</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" t="s">
+        <v>18</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116400.822313845</v>
+      </c>
+      <c r="G154">
+        <v>4841769.436457927</v>
+      </c>
+      <c r="H154">
+        <v>3986312.115451345</v>
+      </c>
+      <c r="I154">
+        <v>1117343.413800405</v>
+      </c>
+      <c r="J154">
+        <v>4840992.937746905</v>
+      </c>
+      <c r="K154">
+        <v>3982664.34672519</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>23</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116400.326821276</v>
+      </c>
+      <c r="G155">
+        <v>4841785.949280115</v>
+      </c>
+      <c r="H155">
+        <v>3986319.699171381</v>
+      </c>
+      <c r="I155">
+        <v>1117434.084646693</v>
+      </c>
+      <c r="J155">
+        <v>4840944.286081927</v>
+      </c>
+      <c r="K155">
+        <v>3982271.304494831</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>23</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116399.849559736</v>
+      </c>
+      <c r="G156">
+        <v>4841802.462102304</v>
+      </c>
+      <c r="H156">
+        <v>3986327.095899464</v>
+      </c>
+      <c r="I156">
+        <v>1117526.988179154</v>
+      </c>
+      <c r="J156">
+        <v>4840895.634416947</v>
+      </c>
+      <c r="K156">
+        <v>3981863.113610327</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>23</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" t="s">
+        <v>18</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116399.389438191</v>
+      </c>
+      <c r="G157">
+        <v>4841818.974924493</v>
+      </c>
+      <c r="H157">
+        <v>3986334.314635458</v>
+      </c>
+      <c r="I157">
+        <v>1117622.179375633</v>
+      </c>
+      <c r="J157">
+        <v>4840846.982751969</v>
+      </c>
+      <c r="K157">
+        <v>3981439.774071678</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>23</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" t="s">
+        <v>18</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116398.945454864</v>
+      </c>
+      <c r="G158">
+        <v>4841835.487746681</v>
+      </c>
+      <c r="H158">
+        <v>3986341.363744727</v>
+      </c>
+      <c r="I158">
+        <v>1117719.714567751</v>
+      </c>
+      <c r="J158">
+        <v>4840798.33108699</v>
+      </c>
+      <c r="K158">
+        <v>3981001.285878884</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>23</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" t="s">
+        <v>18</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116398.516688067</v>
+      </c>
+      <c r="G159">
+        <v>4841852.00056887</v>
+      </c>
+      <c r="H159">
+        <v>3986348.251016408</v>
+      </c>
+      <c r="I159">
+        <v>1117819.651474244</v>
+      </c>
+      <c r="J159">
+        <v>4840749.679422013</v>
+      </c>
+      <c r="K159">
+        <v>3980547.649031946</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>23</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" t="s">
+        <v>18</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116398.102288148</v>
+      </c>
+      <c r="G160">
+        <v>4841868.513391059</v>
+      </c>
+      <c r="H160">
+        <v>3986354.983715154</v>
+      </c>
+      <c r="I160">
+        <v>1117922.049235119</v>
+      </c>
+      <c r="J160">
+        <v>4840701.027757033</v>
+      </c>
+      <c r="K160">
+        <v>3980078.863530863</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>23</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" t="s">
+        <v>20</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>1116580.052077512</v>
+      </c>
+      <c r="G161">
+        <v>4841123.681966844</v>
+      </c>
+      <c r="H161">
+        <v>3985231.950878755</v>
+      </c>
+      <c r="I161">
+        <v>1114860.93655396</v>
+      </c>
+      <c r="J161">
+        <v>4843231.262255651</v>
+      </c>
+      <c r="K161">
+        <v>3984366.984492655</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>23</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" t="s">
+        <v>20</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>1116580.052077512</v>
+      </c>
+      <c r="G162">
+        <v>4841123.681966844</v>
+      </c>
+      <c r="H162">
+        <v>3985231.950878755</v>
+      </c>
+      <c r="I162">
+        <v>1114890.550539244</v>
+      </c>
+      <c r="J162">
+        <v>4843182.610587178</v>
+      </c>
+      <c r="K162">
+        <v>3984670.78023022</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>23</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" t="s">
+        <v>20</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>1116580.052077512</v>
+      </c>
+      <c r="G163">
+        <v>4841123.681966844</v>
+      </c>
+      <c r="H163">
+        <v>3985231.950878755</v>
+      </c>
+      <c r="I163">
+        <v>1114920.893741671</v>
+      </c>
+      <c r="J163">
+        <v>4843133.958918704</v>
+      </c>
+      <c r="K163">
+        <v>3984959.42731976</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>23</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>1116580.052077512</v>
+      </c>
+      <c r="G164">
+        <v>4841123.681966844</v>
+      </c>
+      <c r="H164">
+        <v>3985231.950878755</v>
+      </c>
+      <c r="I164">
+        <v>1114951.984117544</v>
+      </c>
+      <c r="J164">
+        <v>4843085.30725023</v>
+      </c>
+      <c r="K164">
+        <v>3985232.925761275</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>23</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" t="s">
+        <v>20</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>1116580.052077512</v>
+      </c>
+      <c r="G165">
+        <v>4841123.681966844</v>
+      </c>
+      <c r="H165">
+        <v>3985231.950878755</v>
+      </c>
+      <c r="I165">
+        <v>1114983.840065319</v>
+      </c>
+      <c r="J165">
+        <v>4843036.655581756</v>
+      </c>
+      <c r="K165">
+        <v>3985491.275554766</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>23</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>1116580.052077512</v>
+      </c>
+      <c r="G166">
+        <v>4841123.681966844</v>
+      </c>
+      <c r="H166">
+        <v>3985231.950878755</v>
+      </c>
+      <c r="I166">
+        <v>1115016.480436501</v>
+      </c>
+      <c r="J166">
+        <v>4842988.003913283</v>
+      </c>
+      <c r="K166">
+        <v>3985734.476700233</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>23</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>1116580.052077512</v>
+      </c>
+      <c r="G167">
+        <v>4841123.681966844</v>
+      </c>
+      <c r="H167">
+        <v>3985231.950878755</v>
+      </c>
+      <c r="I167">
+        <v>1115049.924546795</v>
+      </c>
+      <c r="J167">
+        <v>4842939.352244809</v>
+      </c>
+      <c r="K167">
+        <v>3985962.529197674</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>23</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" t="s">
+        <v>20</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>1116580.052077512</v>
+      </c>
+      <c r="G168">
+        <v>4841123.681966844</v>
+      </c>
+      <c r="H168">
+        <v>3985231.950878755</v>
+      </c>
+      <c r="I168">
+        <v>1115084.192187537</v>
+      </c>
+      <c r="J168">
+        <v>4842890.700576336</v>
+      </c>
+      <c r="K168">
+        <v>3986175.433047091</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>23</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" t="s">
+        <v>20</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>1116580.052077512</v>
+      </c>
+      <c r="G169">
+        <v>4841140.194783049</v>
+      </c>
+      <c r="H169">
+        <v>3985231.950878755</v>
+      </c>
+      <c r="I169">
+        <v>1115119.303637407</v>
+      </c>
+      <c r="J169">
+        <v>4842842.048907863</v>
+      </c>
+      <c r="K169">
+        <v>3986373.188248483</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>23</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" t="s">
+        <v>20</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>1116531.371446242</v>
+      </c>
+      <c r="G170">
+        <v>4841156.707599252</v>
+      </c>
+      <c r="H170">
+        <v>3985431.20546665</v>
+      </c>
+      <c r="I170">
+        <v>1115155.279674428</v>
+      </c>
+      <c r="J170">
+        <v>4842793.39723939</v>
+      </c>
+      <c r="K170">
+        <v>3986555.794801851</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>23</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" t="s">
+        <v>20</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>1116502.774017456</v>
+      </c>
+      <c r="G171">
+        <v>4841173.220415457</v>
+      </c>
+      <c r="H171">
+        <v>3985549.891689466</v>
+      </c>
+      <c r="I171">
+        <v>1115192.141588263</v>
+      </c>
+      <c r="J171">
+        <v>4842744.745570915</v>
+      </c>
+      <c r="K171">
+        <v>3986723.252707194</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>23</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" t="s">
+        <v>20</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>1116484.721222392</v>
+      </c>
+      <c r="G172">
+        <v>4841189.733231661</v>
+      </c>
+      <c r="H172">
+        <v>3985634.708711218</v>
+      </c>
+      <c r="I172">
+        <v>1115229.911192814</v>
+      </c>
+      <c r="J172">
+        <v>4842696.093902442</v>
+      </c>
+      <c r="K172">
+        <v>3986875.561964512</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>23</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" t="s">
+        <v>20</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>1116472.131276395</v>
+      </c>
+      <c r="G173">
+        <v>4841206.246047865</v>
+      </c>
+      <c r="H173">
+        <v>3985700.755680615</v>
+      </c>
+      <c r="I173">
+        <v>1115268.610839129</v>
+      </c>
+      <c r="J173">
+        <v>4842647.442233969</v>
+      </c>
+      <c r="K173">
+        <v>3987012.722573806</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>23</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" t="s">
+        <v>20</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>1116462.738799656</v>
+      </c>
+      <c r="G174">
+        <v>4841222.758864069</v>
+      </c>
+      <c r="H174">
+        <v>3985754.853271621</v>
+      </c>
+      <c r="I174">
+        <v>1115308.263428632</v>
+      </c>
+      <c r="J174">
+        <v>4842598.790565495</v>
+      </c>
+      <c r="K174">
+        <v>3987134.734535075</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>23</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" t="s">
+        <v>20</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>1116455.395194466</v>
+      </c>
+      <c r="G175">
+        <v>4841239.271680273</v>
+      </c>
+      <c r="H175">
+        <v>3985800.669982271</v>
+      </c>
+      <c r="I175">
+        <v>1115348.892426672</v>
+      </c>
+      <c r="J175">
+        <v>4842550.138897021</v>
+      </c>
+      <c r="K175">
+        <v>3987241.597848319</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>23</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" t="s">
+        <v>20</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>1116449.453683162</v>
+      </c>
+      <c r="G176">
+        <v>4841255.784496478</v>
+      </c>
+      <c r="H176">
+        <v>3985840.407634293</v>
+      </c>
+      <c r="I176">
+        <v>1115390.521876411</v>
+      </c>
+      <c r="J176">
+        <v>4842501.487228548</v>
+      </c>
+      <c r="K176">
+        <v>3987333.312513539</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>23</v>
+      </c>
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" t="s">
+        <v>20</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>1116444.520111701</v>
+      </c>
+      <c r="G177">
+        <v>4841272.297312682</v>
+      </c>
+      <c r="H177">
+        <v>3985875.492048841</v>
+      </c>
+      <c r="I177">
+        <v>1115433.176413051</v>
+      </c>
+      <c r="J177">
+        <v>4842452.835560074</v>
+      </c>
+      <c r="K177">
+        <v>3987409.878530734</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>23</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" t="s">
+        <v>20</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>1116440.339281092</v>
+      </c>
+      <c r="G178">
+        <v>4841288.810128886</v>
+      </c>
+      <c r="H178">
+        <v>3985906.899659859</v>
+      </c>
+      <c r="I178">
+        <v>1115476.881278414</v>
+      </c>
+      <c r="J178">
+        <v>4842404.183891601</v>
+      </c>
+      <c r="K178">
+        <v>3987471.295899904</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>23</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" t="s">
+        <v>20</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>1116436.737903407</v>
+      </c>
+      <c r="G179">
+        <v>4841305.322945091</v>
+      </c>
+      <c r="H179">
+        <v>3985935.328536065</v>
+      </c>
+      <c r="I179">
+        <v>1115521.662335879</v>
+      </c>
+      <c r="J179">
+        <v>4842355.532223127</v>
+      </c>
+      <c r="K179">
+        <v>3987517.56462105</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>23</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" t="s">
+        <v>20</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>1116433.593714597</v>
+      </c>
+      <c r="G180">
+        <v>4841321.835761296</v>
+      </c>
+      <c r="H180">
+        <v>3985961.29506841</v>
+      </c>
+      <c r="I180">
+        <v>1115567.546085687</v>
+      </c>
+      <c r="J180">
+        <v>4842306.880554654</v>
+      </c>
+      <c r="K180">
+        <v>3987548.684694171</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>23</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" t="s">
+        <v>20</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>1116430.817693051</v>
+      </c>
+      <c r="G181">
+        <v>4841338.348577499</v>
+      </c>
+      <c r="H181">
+        <v>3985985.192012017</v>
+      </c>
+      <c r="I181">
+        <v>1115614.559680621</v>
+      </c>
+      <c r="J181">
+        <v>4842258.228886181</v>
+      </c>
+      <c r="K181">
+        <v>3987564.656119268</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>23</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" t="s">
+        <v>20</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>1116428.343294785</v>
+      </c>
+      <c r="G182">
+        <v>4841354.861393704</v>
+      </c>
+      <c r="H182">
+        <v>3986007.325053963</v>
+      </c>
+      <c r="I182">
+        <v>1115662.730942079</v>
+      </c>
+      <c r="J182">
+        <v>4842209.577217707</v>
+      </c>
+      <c r="K182">
+        <v>3987565.478896339</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>23</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" t="s">
+        <v>20</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>1116426.119657164</v>
+      </c>
+      <c r="G183">
+        <v>4841371.374209909</v>
+      </c>
+      <c r="H183">
+        <v>3986027.936787411</v>
+      </c>
+      <c r="I183">
+        <v>1115712.088376533</v>
+      </c>
+      <c r="J183">
+        <v>4842160.925549233</v>
+      </c>
+      <c r="K183">
+        <v>3987551.153025386</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>23</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" t="s">
+        <v>20</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>1116424.107152968</v>
+      </c>
+      <c r="G184">
+        <v>4841387.887026113</v>
+      </c>
+      <c r="H184">
+        <v>3986047.222962949</v>
+      </c>
+      <c r="I184">
+        <v>1115762.661192403</v>
+      </c>
+      <c r="J184">
+        <v>4842112.273880759</v>
+      </c>
+      <c r="K184">
+        <v>3987521.678506409</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>23</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" t="s">
+        <v>20</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>1116422.27439212</v>
+      </c>
+      <c r="G185">
+        <v>4841404.399842317</v>
+      </c>
+      <c r="H185">
+        <v>3986065.343822598</v>
+      </c>
+      <c r="I185">
+        <v>1115814.479317337</v>
+      </c>
+      <c r="J185">
+        <v>4842063.622212286</v>
+      </c>
+      <c r="K185">
+        <v>3987477.055339407</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>23</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" t="s">
+        <v>20</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>1116420.596145668</v>
+      </c>
+      <c r="G186">
+        <v>4841420.912658521</v>
+      </c>
+      <c r="H186">
+        <v>3986082.432200509</v>
+      </c>
+      <c r="I186">
+        <v>1115867.573415926</v>
+      </c>
+      <c r="J186">
+        <v>4842014.970543812</v>
+      </c>
+      <c r="K186">
+        <v>3987417.28352438</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>23</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" t="s">
+        <v>20</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>1116419.051874816</v>
+      </c>
+      <c r="G187">
+        <v>4841437.425474725</v>
+      </c>
+      <c r="H187">
+        <v>3986098.599437726</v>
+      </c>
+      <c r="I187">
+        <v>1115921.974907848</v>
+      </c>
+      <c r="J187">
+        <v>4841966.318875339</v>
+      </c>
+      <c r="K187">
+        <v>3987342.363061328</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>23</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" t="s">
+        <v>20</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>1116417.624667238</v>
+      </c>
+      <c r="G188">
+        <v>4841453.938290929</v>
+      </c>
+      <c r="H188">
+        <v>3986113.939782748</v>
+      </c>
+      <c r="I188">
+        <v>1115977.715986459</v>
+      </c>
+      <c r="J188">
+        <v>4841917.667206866</v>
+      </c>
+      <c r="K188">
+        <v>3987252.293950253</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>23</v>
+      </c>
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" t="s">
+        <v>20</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>1116416.300453897</v>
+      </c>
+      <c r="G189">
+        <v>4841470.451107133</v>
+      </c>
+      <c r="H189">
+        <v>3986128.53372049</v>
+      </c>
+      <c r="I189">
+        <v>1116034.82963785</v>
+      </c>
+      <c r="J189">
+        <v>4841869.015538393</v>
+      </c>
+      <c r="K189">
+        <v>3987147.076191152</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>23</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" t="s">
+        <v>20</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>1116415.067422994</v>
+      </c>
+      <c r="G190">
+        <v>4841486.963923338</v>
+      </c>
+      <c r="H190">
+        <v>3986142.450528295</v>
+      </c>
+      <c r="I190">
+        <v>1116093.349660364</v>
+      </c>
+      <c r="J190">
+        <v>4841820.363869919</v>
+      </c>
+      <c r="K190">
+        <v>3987026.709784027</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>23</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" t="s">
+        <v>20</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>1116413.915575004</v>
+      </c>
+      <c r="G191">
+        <v>4841503.476739543</v>
+      </c>
+      <c r="H191">
+        <v>3986155.750264839</v>
+      </c>
+      <c r="I191">
+        <v>1116153.310684594</v>
+      </c>
+      <c r="J191">
+        <v>4841771.712201444</v>
+      </c>
+      <c r="K191">
+        <v>3986891.194728877</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>23</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" t="s">
+        <v>20</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>1116412.836380369</v>
+      </c>
+      <c r="G192">
+        <v>4841519.989555746</v>
+      </c>
+      <c r="H192">
+        <v>3986168.485336518</v>
+      </c>
+      <c r="I192">
+        <v>1116214.748193882</v>
+      </c>
+      <c r="J192">
+        <v>4841723.060532971</v>
+      </c>
+      <c r="K192">
+        <v>3986740.531025702</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>23</v>
+      </c>
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" t="s">
+        <v>20</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>1116411.822512992</v>
+      </c>
+      <c r="G193">
+        <v>4841536.502371951</v>
+      </c>
+      <c r="H193">
+        <v>3986180.701744664</v>
+      </c>
+      <c r="I193">
+        <v>1116277.698545316</v>
+      </c>
+      <c r="J193">
+        <v>4841674.408864498</v>
+      </c>
+      <c r="K193">
+        <v>3986574.718674503</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>23</v>
+      </c>
+      <c r="B194" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" t="s">
+        <v>20</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>1116410.867640478</v>
+      </c>
+      <c r="G194">
+        <v>4841553.015188155</v>
+      </c>
+      <c r="H194">
+        <v>3986192.440088577</v>
+      </c>
+      <c r="I194">
+        <v>1116342.19899124</v>
+      </c>
+      <c r="J194">
+        <v>4841625.757196024</v>
+      </c>
+      <c r="K194">
+        <v>3986393.757675279</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>23</v>
+      </c>
+      <c r="B195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" t="s">
+        <v>20</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>1116409.966257369</v>
+      </c>
+      <c r="G195">
+        <v>4841569.528004359</v>
+      </c>
+      <c r="H195">
+        <v>3986203.736379585</v>
+      </c>
+      <c r="I195">
+        <v>1116408.287701306</v>
+      </c>
+      <c r="J195">
+        <v>4841577.105527551</v>
+      </c>
+      <c r="K195">
+        <v>3986197.648028031</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>23</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" t="s">
+        <v>20</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>1116409.113551351</v>
+      </c>
+      <c r="G196">
+        <v>4841586.040820564</v>
+      </c>
+      <c r="H196">
+        <v>3986214.62270732</v>
+      </c>
+      <c r="I196">
+        <v>1116476.003785056</v>
+      </c>
+      <c r="J196">
+        <v>4841528.453859078</v>
+      </c>
+      <c r="K196">
+        <v>3985986.389732757</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>23</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" t="s">
+        <v>20</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>1116408.305294982</v>
+      </c>
+      <c r="G197">
+        <v>4841602.553636768</v>
+      </c>
+      <c r="H197">
+        <v>3986225.12778926</v>
+      </c>
+      <c r="I197">
+        <v>1116545.387315072</v>
+      </c>
+      <c r="J197">
+        <v>4841479.802190605</v>
+      </c>
+      <c r="K197">
+        <v>3985759.982789459</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>23</v>
+      </c>
+      <c r="B198" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" t="s">
+        <v>20</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>1116407.537757398</v>
+      </c>
+      <c r="G198">
+        <v>4841619.066452973</v>
+      </c>
+      <c r="H198">
+        <v>3986235.277427272</v>
+      </c>
+      <c r="I198">
+        <v>1116616.479350682</v>
+      </c>
+      <c r="J198">
+        <v>4841431.15052213</v>
+      </c>
+      <c r="K198">
+        <v>3985518.427198137</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>23</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>1116406.807631774</v>
+      </c>
+      <c r="G199">
+        <v>4841635.579269177</v>
+      </c>
+      <c r="H199">
+        <v>3986245.094889414</v>
+      </c>
+      <c r="I199">
+        <v>1116689.321962266</v>
+      </c>
+      <c r="J199">
+        <v>4841382.498853656</v>
+      </c>
+      <c r="K199">
+        <v>3985261.72295879</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>23</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" t="s">
+        <v>20</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>1116406.111975323</v>
+      </c>
+      <c r="G200">
+        <v>4841652.092085381</v>
+      </c>
+      <c r="H200">
+        <v>3986254.601231208</v>
+      </c>
+      <c r="I200">
+        <v>1116763.958256146</v>
+      </c>
+      <c r="J200">
+        <v>4841333.847185183</v>
+      </c>
+      <c r="K200">
+        <v>3984989.870071418</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>23</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" t="s">
+        <v>20</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>1116405.448159357</v>
+      </c>
+      <c r="G201">
+        <v>4841668.604901586</v>
+      </c>
+      <c r="H201">
+        <v>3986263.815567566</v>
+      </c>
+      <c r="I201">
+        <v>1116840.432400099</v>
+      </c>
+      <c r="J201">
+        <v>4841285.19551671</v>
+      </c>
+      <c r="K201">
+        <v>3984702.868536021</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>23</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" t="s">
+        <v>20</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>1116404.813827466</v>
+      </c>
+      <c r="G202">
+        <v>4841685.11771779</v>
+      </c>
+      <c r="H202">
+        <v>3986272.755304175</v>
+      </c>
+      <c r="I202">
+        <v>1116918.789649491</v>
+      </c>
+      <c r="J202">
+        <v>4841236.543848236</v>
+      </c>
+      <c r="K202">
+        <v>3984400.7183526</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>23</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" t="s">
+        <v>20</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>1116404.206860314</v>
+      </c>
+      <c r="G203">
+        <v>4841701.630533993</v>
+      </c>
+      <c r="H203">
+        <v>3986281.436335396</v>
+      </c>
+      <c r="I203">
+        <v>1116999.076374063</v>
+      </c>
+      <c r="J203">
+        <v>4841187.892179763</v>
+      </c>
+      <c r="K203">
+        <v>3984083.419521154</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>23</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" t="s">
+        <v>20</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>1116403.625345829</v>
+      </c>
+      <c r="G204">
+        <v>4841718.143350198</v>
+      </c>
+      <c r="H204">
+        <v>3986289.873214322</v>
+      </c>
+      <c r="I204">
+        <v>1117081.340085364</v>
+      </c>
+      <c r="J204">
+        <v>4841139.24051129</v>
+      </c>
+      <c r="K204">
+        <v>3983750.972041685</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>23</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" t="s">
+        <v>20</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>1116403.067553862</v>
+      </c>
+      <c r="G205">
+        <v>4841734.656166402</v>
+      </c>
+      <c r="H205">
+        <v>3986298.07929957</v>
+      </c>
+      <c r="I205">
+        <v>1117165.629464876</v>
+      </c>
+      <c r="J205">
+        <v>4841090.588842815</v>
+      </c>
+      <c r="K205">
+        <v>3983403.375914189</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>23</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" t="s">
+        <v>20</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>1116402.531914523</v>
+      </c>
+      <c r="G206">
+        <v>4841751.168982606</v>
+      </c>
+      <c r="H206">
+        <v>3986306.06688253</v>
+      </c>
+      <c r="I206">
+        <v>1117251.994392813</v>
+      </c>
+      <c r="J206">
+        <v>4841041.937174342</v>
+      </c>
+      <c r="K206">
+        <v>3983040.63113867</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>23</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" t="s">
+        <v>20</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>1116402.01699959</v>
+      </c>
+      <c r="G207">
+        <v>4841767.681798811</v>
+      </c>
+      <c r="H207">
+        <v>3986313.847298101</v>
+      </c>
+      <c r="I207">
+        <v>1117340.485977646</v>
+      </c>
+      <c r="J207">
+        <v>4840993.285505868</v>
+      </c>
+      <c r="K207">
+        <v>3982662.737715125</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>23</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" t="s">
+        <v>20</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>1116401.521506491</v>
+      </c>
+      <c r="G208">
+        <v>4841784.194615015</v>
+      </c>
+      <c r="H208">
+        <v>3986321.431021431</v>
+      </c>
+      <c r="I208">
+        <v>1117431.156586345</v>
+      </c>
+      <c r="J208">
+        <v>4840944.633837395</v>
+      </c>
+      <c r="K208">
+        <v>3982269.695643557</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>23</v>
+      </c>
+      <c r="B209" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" t="s">
+        <v>20</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>1116401.044244441</v>
+      </c>
+      <c r="G209">
+        <v>4841800.70743122</v>
+      </c>
+      <c r="H209">
+        <v>3986328.827752727</v>
+      </c>
+      <c r="I209">
+        <v>1117524.059875367</v>
+      </c>
+      <c r="J209">
+        <v>4840895.982168921</v>
+      </c>
+      <c r="K209">
+        <v>3981861.504923963</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>23</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" t="s">
+        <v>20</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>1116400.584122403</v>
+      </c>
+      <c r="G210">
+        <v>4841817.220247424</v>
+      </c>
+      <c r="H210">
+        <v>3986336.046491858</v>
+      </c>
+      <c r="I210">
+        <v>1117619.250822413</v>
+      </c>
+      <c r="J210">
+        <v>4840847.330500448</v>
+      </c>
+      <c r="K210">
+        <v>3981438.165556345</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>23</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" t="s">
+        <v>20</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>1116400.140138601</v>
+      </c>
+      <c r="G211">
+        <v>4841833.733063628</v>
+      </c>
+      <c r="H211">
+        <v>3986343.095604189</v>
+      </c>
+      <c r="I211">
+        <v>1117716.785758955</v>
+      </c>
+      <c r="J211">
+        <v>4840798.678831975</v>
+      </c>
+      <c r="K211">
+        <v>3980999.677540701</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>23</v>
+      </c>
+      <c r="B212" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" t="s">
+        <v>20</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>1116399.711371345</v>
+      </c>
+      <c r="G212">
+        <v>4841850.245879833</v>
+      </c>
+      <c r="H212">
+        <v>3986349.982878863</v>
+      </c>
+      <c r="I212">
+        <v>1117816.722403579</v>
+      </c>
+      <c r="J212">
+        <v>4840750.027163501</v>
+      </c>
+      <c r="K212">
+        <v>3980546.040877034</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>23</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" t="s">
+        <v>20</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>1116399.296970983</v>
+      </c>
+      <c r="G213">
+        <v>4841866.758696037</v>
+      </c>
+      <c r="H213">
+        <v>3986356.715580533</v>
+      </c>
+      <c r="I213">
+        <v>1117919.119896137</v>
+      </c>
+      <c r="J213">
+        <v>4840701.375495027</v>
+      </c>
+      <c r="K213">
+        <v>3980077.255565342</v>
       </c>
     </row>
   </sheetData>
